--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_1_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_1_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>841619.2785748119</v>
+        <v>709735.8627859592</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23038101.87393361</v>
+        <v>23038101.87393363</v>
       </c>
     </row>
     <row r="9">
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>78.11891606293401</v>
+        <v>6.986383835614403</v>
       </c>
       <c r="G11" t="n">
         <v>78.11891606293401</v>
       </c>
       <c r="H11" t="n">
-        <v>78.11891606293401</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>6.986383835614348</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>61.82075743261788</v>
@@ -1426,10 +1426,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>78.11891606293401</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>78.11891606293401</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1457,67 +1457,67 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>10.78637450103815</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>68.80714126823226</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
         <v>78.11891606293401</v>
       </c>
-      <c r="G12" t="n">
+      <c r="W12" t="n">
         <v>78.11891606293401</v>
       </c>
-      <c r="H12" t="n">
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
         <v>78.11891606293401</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>58.02076676719412</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1606,73 +1606,73 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>78.11891606293401</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>78.11891606293401</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>6.986383835614319</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.181990105187914</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>67.62515116304431</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
         <v>78.11891606293401</v>
-      </c>
-      <c r="G14" t="n">
-        <v>78.11891606293401</v>
-      </c>
-      <c r="H14" t="n">
-        <v>78.11891606293401</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>61.82075743261788</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1688,19 +1688,19 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>68.80714126823226</v>
+        <v>78.11891606293401</v>
       </c>
       <c r="D15" t="n">
         <v>78.11891606293401</v>
       </c>
       <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>68.80714126823229</v>
+      </c>
+      <c r="G15" t="n">
         <v>78.11891606293401</v>
-      </c>
-      <c r="F15" t="n">
-        <v>78.11891606293401</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1852,64 +1852,64 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>6.986383835614319</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>78.11891606293401</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
         <v>78.11891606293401</v>
       </c>
-      <c r="H17" t="n">
+      <c r="V17" t="n">
+        <v>68.8071412682322</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
         <v>78.11891606293401</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>61.82075743261788</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1937,52 +1937,52 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
+        <v>68.80714126823229</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
         <v>78.11891606293401</v>
       </c>
-      <c r="H18" t="n">
+      <c r="S18" t="n">
         <v>78.11891606293401</v>
       </c>
-      <c r="I18" t="n">
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
         <v>78.11891606293401</v>
-      </c>
-      <c r="J18" t="n">
-        <v>58.02076676719412</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>10.78637450103815</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2080,70 +2080,70 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
         <v>78.11891606293401</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>68.8071412682322</v>
+      </c>
+      <c r="W20" t="n">
         <v>78.11891606293401</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1.181990105187914</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>67.62515116304431</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>78.11891606293401</v>
@@ -2171,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>68.80714126823229</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>58.02076676719412</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2204,25 +2204,25 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>10.78637450103815</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
         <v>78.11891606293401</v>
-      </c>
-      <c r="T21" t="n">
-        <v>78.11891606293401</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>78.11891606293401</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>78.11891606293401</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>108.9267490953733</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2338,10 +2338,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>83.87914814385725</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>61.82075743261788</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2371,16 +2371,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>36.77315648110191</v>
+      </c>
+      <c r="V23" t="n">
         <v>108.9267490953733</v>
       </c>
-      <c r="U23" t="n">
+      <c r="W23" t="n">
         <v>108.9267490953733</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2402,16 +2402,16 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>108.9267490953733</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>108.9267490953733</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>108.9267490953733</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2441,25 +2441,25 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.16023228977369</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>95.94268060320476</v>
       </c>
       <c r="T24" t="n">
-        <v>108.9267490953733</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>108.9267490953733</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>108.9267490953733</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>73.78244831343108</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2554,76 +2554,76 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
         <v>108.9267490953733</v>
       </c>
-      <c r="C26" t="n">
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>36.77315648110191</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
         <v>108.9267490953733</v>
       </c>
-      <c r="D26" t="n">
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>108.9267490953733</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>36.77315648110191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,22 +2633,22 @@
         </is>
       </c>
       <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
         <v>108.9267490953733</v>
       </c>
-      <c r="C27" t="n">
-        <v>95.94268060320475</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>73.78244831343108</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>108.9267490953733</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2678,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>22.16023228977369</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -2690,19 +2690,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>108.9267490953733</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>108.9267490953733</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>108.9267490953733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2806,52 +2806,52 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>67.62515116304431</v>
+      </c>
+      <c r="R29" t="n">
         <v>108.9267490953733</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>36.77315648110191</v>
-      </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>108.9267490953733</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>108.9267490953733</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>78.07475441343085</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2885,16 +2885,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>108.9267490953733</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>108.9267490953733</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>108.4096919554711</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>58.02076676719412</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>22.16023228977369</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>15.76168154623692</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>108.9267490953733</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>108.9267490953733</v>
       </c>
       <c r="W30" t="n">
-        <v>74.2995054533332</v>
+        <v>108.9267490953733</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3028,76 +3028,76 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
         <v>108.9267490953733</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
         <v>108.9267490953733</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
+      <c r="X32" t="n">
         <v>108.9267490953733</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
       <c r="Y32" t="n">
-        <v>36.77315648110191</v>
+        <v>36.7731564811019</v>
       </c>
     </row>
     <row r="33">
@@ -3107,59 +3107,59 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>95.94268060320475</v>
       </c>
       <c r="C33" t="n">
         <v>108.9267490953733</v>
       </c>
       <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
         <v>108.9267490953733</v>
       </c>
-      <c r="E33" t="n">
-        <v>95.94268060320475</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0</v>
-      </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
@@ -3173,10 +3173,10 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>108.9267490953733</v>
       </c>
       <c r="Y33" t="n">
-        <v>108.9267490953733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3280,61 +3280,61 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>61.82075743261788</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
         <v>78.11891606293401</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>78.11891606293401</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>78.11891606293401</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>68.8071412682322</v>
+        <v>6.986383835614348</v>
       </c>
       <c r="X35" t="n">
-        <v>78.11891606293401</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>78.11891606293401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,23 +3344,23 @@
         </is>
       </c>
       <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>46.6469089784586</v>
+      </c>
+      <c r="G36" t="n">
         <v>78.11891606293401</v>
       </c>
-      <c r="C36" t="n">
-        <v>10.78637450103816</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>58.02076676719412</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3389,13 +3389,13 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>22.16023228977369</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>78.11891606293401</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>78.11891606293401</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3407,13 +3407,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>78.11891606293401</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>78.11891606293401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>78.11891606293401</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,25 +3550,25 @@
         <v>67.62515116304431</v>
       </c>
       <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
         <v>78.11891606293401</v>
       </c>
-      <c r="S38" t="n">
+      <c r="V38" t="n">
         <v>78.11891606293401</v>
       </c>
-      <c r="T38" t="n">
-        <v>1.181990105187911</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>78.11891606293401</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>1.181990105187914</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3581,23 +3581,23 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>78.11891606293401</v>
       </c>
       <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
         <v>78.11891606293401</v>
       </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>46.6469089784586</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
@@ -3626,25 +3626,25 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.16023228977369</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
         <v>78.11891606293401</v>
       </c>
-      <c r="S39" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" t="n">
-        <v>0</v>
-      </c>
-      <c r="U39" t="n">
-        <v>0</v>
-      </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>68.80714126823226</v>
       </c>
       <c r="W39" t="n">
-        <v>78.11891606293401</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3742,62 +3742,62 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>68.80714126823223</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>78.11891606293401</v>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>6.986383835614348</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
         <v>78.11891606293401</v>
       </c>
-      <c r="J41" t="n">
-        <v>61.82075743261788</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>78.11891606293401</v>
       </c>
       <c r="Y41" t="n">
-        <v>78.11891606293401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3827,61 +3827,61 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>22.16023228977369</v>
+      </c>
+      <c r="R42" t="n">
+        <v>46.64690897845858</v>
+      </c>
+      <c r="S42" t="n">
         <v>78.11891606293401</v>
       </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
+      <c r="T42" t="n">
         <v>78.11891606293401</v>
       </c>
-      <c r="J42" t="n">
-        <v>58.02076676719412</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>10.78637450103815</v>
-      </c>
-      <c r="R42" t="n">
-        <v>0</v>
-      </c>
-      <c r="S42" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" t="n">
-        <v>0</v>
-      </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>78.11891606293401</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>78.11891606293401</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3985,10 +3985,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>1.181990105187954</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>78.11891606293401</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>78.11891606293401</v>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>67.62515116304431</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>78.11891606293401</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>78.11891606293401</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>68.80714126823229</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>78.11891606293401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4067,10 +4067,10 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>78.11891606293401</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>46.6469089784586</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4115,7 +4115,7 @@
         <v>78.11891606293401</v>
       </c>
       <c r="V45" t="n">
-        <v>78.11891606293401</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>78.11891606293401</v>
@@ -4124,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>46.6469089784586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>312.475664251736</v>
+        <v>154.6596722054047</v>
       </c>
       <c r="C11" t="n">
-        <v>312.475664251736</v>
+        <v>154.6596722054047</v>
       </c>
       <c r="D11" t="n">
-        <v>312.475664251736</v>
+        <v>154.6596722054047</v>
       </c>
       <c r="E11" t="n">
-        <v>312.475664251736</v>
+        <v>154.6596722054047</v>
       </c>
       <c r="F11" t="n">
-        <v>233.5676682285703</v>
+        <v>147.6027188360972</v>
       </c>
       <c r="G11" t="n">
-        <v>154.6596722054047</v>
+        <v>68.69472281293157</v>
       </c>
       <c r="H11" t="n">
-        <v>75.751676182239</v>
+        <v>68.69472281293157</v>
       </c>
       <c r="I11" t="n">
         <v>68.69472281293157</v>
@@ -5044,13 +5044,13 @@
         <v>6.249513285034721</v>
       </c>
       <c r="K11" t="n">
-        <v>6.929473467016152</v>
+        <v>6.929473467016135</v>
       </c>
       <c r="L11" t="n">
-        <v>65.73931599410631</v>
+        <v>65.73931599410629</v>
       </c>
       <c r="M11" t="n">
-        <v>143.077042896411</v>
+        <v>143.0770428964109</v>
       </c>
       <c r="N11" t="n">
         <v>220.4147697987156</v>
@@ -5074,19 +5074,19 @@
         <v>312.475664251736</v>
       </c>
       <c r="U11" t="n">
-        <v>312.475664251736</v>
+        <v>233.5676682285704</v>
       </c>
       <c r="V11" t="n">
-        <v>312.475664251736</v>
+        <v>154.6596722054047</v>
       </c>
       <c r="W11" t="n">
-        <v>312.475664251736</v>
+        <v>154.6596722054047</v>
       </c>
       <c r="X11" t="n">
-        <v>312.475664251736</v>
+        <v>154.6596722054047</v>
       </c>
       <c r="Y11" t="n">
-        <v>312.475664251736</v>
+        <v>154.6596722054047</v>
       </c>
     </row>
     <row r="12">
@@ -5096,43 +5096,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="C12" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="D12" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="E12" t="n">
-        <v>301.5803364729096</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="F12" t="n">
-        <v>222.672340449744</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="G12" t="n">
-        <v>143.7643444265783</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="H12" t="n">
-        <v>64.85634840341262</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="I12" t="n">
-        <v>64.85634840341262</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="J12" t="n">
         <v>6.249513285034721</v>
       </c>
       <c r="K12" t="n">
-        <v>34.97704472787882</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="L12" t="n">
-        <v>49.81844984289267</v>
+        <v>21.09091840004857</v>
       </c>
       <c r="M12" t="n">
-        <v>95.44708929019913</v>
+        <v>89.89127349662358</v>
       </c>
       <c r="N12" t="n">
-        <v>163.3560262407022</v>
+        <v>157.8002104471267</v>
       </c>
       <c r="O12" t="n">
         <v>235.1379373494314</v>
@@ -5150,22 +5150,22 @@
         <v>312.475664251736</v>
       </c>
       <c r="T12" t="n">
-        <v>312.475664251736</v>
+        <v>242.9735013545317</v>
       </c>
       <c r="U12" t="n">
-        <v>312.475664251736</v>
+        <v>242.9735013545317</v>
       </c>
       <c r="V12" t="n">
-        <v>312.475664251736</v>
+        <v>164.0655053313661</v>
       </c>
       <c r="W12" t="n">
-        <v>312.475664251736</v>
+        <v>85.15750930820039</v>
       </c>
       <c r="X12" t="n">
-        <v>312.475664251736</v>
+        <v>85.15750930820039</v>
       </c>
       <c r="Y12" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034721</v>
       </c>
     </row>
     <row r="13">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>312.475664251736</v>
+        <v>86.3514387073801</v>
       </c>
       <c r="C14" t="n">
-        <v>312.475664251736</v>
+        <v>7.443442684214432</v>
       </c>
       <c r="D14" t="n">
-        <v>312.475664251736</v>
+        <v>7.443442684214432</v>
       </c>
       <c r="E14" t="n">
-        <v>305.4187108824286</v>
+        <v>7.443442684214432</v>
       </c>
       <c r="F14" t="n">
-        <v>226.5107148592629</v>
+        <v>7.443442684214432</v>
       </c>
       <c r="G14" t="n">
-        <v>147.6027188360972</v>
+        <v>7.443442684214432</v>
       </c>
       <c r="H14" t="n">
-        <v>68.69472281293157</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="I14" t="n">
-        <v>68.69472281293157</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="J14" t="n">
         <v>6.249513285034721</v>
@@ -5299,31 +5299,31 @@
         <v>312.475664251736</v>
       </c>
       <c r="Q14" t="n">
-        <v>312.475664251736</v>
+        <v>244.1674307537114</v>
       </c>
       <c r="R14" t="n">
-        <v>312.475664251736</v>
+        <v>244.1674307537114</v>
       </c>
       <c r="S14" t="n">
-        <v>312.475664251736</v>
+        <v>244.1674307537114</v>
       </c>
       <c r="T14" t="n">
-        <v>312.475664251736</v>
+        <v>244.1674307537114</v>
       </c>
       <c r="U14" t="n">
-        <v>312.475664251736</v>
+        <v>244.1674307537114</v>
       </c>
       <c r="V14" t="n">
-        <v>312.475664251736</v>
+        <v>244.1674307537114</v>
       </c>
       <c r="W14" t="n">
-        <v>312.475664251736</v>
+        <v>244.1674307537114</v>
       </c>
       <c r="X14" t="n">
-        <v>312.475664251736</v>
+        <v>165.2594347305458</v>
       </c>
       <c r="Y14" t="n">
-        <v>312.475664251736</v>
+        <v>165.2594347305458</v>
       </c>
     </row>
     <row r="15">
@@ -5336,16 +5336,16 @@
         <v>312.475664251736</v>
       </c>
       <c r="C15" t="n">
-        <v>242.9735013545317</v>
+        <v>233.5676682285704</v>
       </c>
       <c r="D15" t="n">
-        <v>164.0655053313661</v>
+        <v>154.6596722054047</v>
       </c>
       <c r="E15" t="n">
+        <v>154.6596722054047</v>
+      </c>
+      <c r="F15" t="n">
         <v>85.15750930820039</v>
-      </c>
-      <c r="F15" t="n">
-        <v>6.249513285034721</v>
       </c>
       <c r="G15" t="n">
         <v>6.249513285034721</v>
@@ -5360,19 +5360,19 @@
         <v>6.249513285034721</v>
       </c>
       <c r="K15" t="n">
-        <v>6.249513285034721</v>
+        <v>34.97704472787882</v>
       </c>
       <c r="L15" t="n">
-        <v>83.58724018733939</v>
+        <v>112.3147716301835</v>
       </c>
       <c r="M15" t="n">
-        <v>137.6020406550233</v>
+        <v>157.9434110774899</v>
       </c>
       <c r="N15" t="n">
-        <v>205.5109776055264</v>
+        <v>225.8523480279931</v>
       </c>
       <c r="O15" t="n">
-        <v>235.1379373494314</v>
+        <v>303.1900749302977</v>
       </c>
       <c r="P15" t="n">
         <v>312.475664251736</v>
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>312.475664251736</v>
+        <v>85.15750930820039</v>
       </c>
       <c r="C17" t="n">
-        <v>312.475664251736</v>
+        <v>85.15750930820039</v>
       </c>
       <c r="D17" t="n">
-        <v>312.475664251736</v>
+        <v>85.15750930820039</v>
       </c>
       <c r="E17" t="n">
-        <v>305.4187108824286</v>
+        <v>85.15750930820039</v>
       </c>
       <c r="F17" t="n">
-        <v>226.5107148592629</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="G17" t="n">
-        <v>147.6027188360972</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="H17" t="n">
-        <v>68.69472281293157</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="I17" t="n">
-        <v>68.69472281293157</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="J17" t="n">
         <v>6.249513285034721</v>
@@ -5548,19 +5548,19 @@
         <v>312.475664251736</v>
       </c>
       <c r="U17" t="n">
-        <v>312.475664251736</v>
+        <v>233.5676682285703</v>
       </c>
       <c r="V17" t="n">
-        <v>312.475664251736</v>
+        <v>164.0655053313661</v>
       </c>
       <c r="W17" t="n">
-        <v>312.475664251736</v>
+        <v>164.0655053313661</v>
       </c>
       <c r="X17" t="n">
-        <v>312.475664251736</v>
+        <v>85.15750930820039</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.475664251736</v>
+        <v>85.15750930820039</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>301.5803364729096</v>
+        <v>75.75167618223905</v>
       </c>
       <c r="C18" t="n">
-        <v>301.5803364729096</v>
+        <v>75.75167618223905</v>
       </c>
       <c r="D18" t="n">
-        <v>301.5803364729096</v>
+        <v>75.75167618223905</v>
       </c>
       <c r="E18" t="n">
-        <v>301.5803364729096</v>
+        <v>75.75167618223905</v>
       </c>
       <c r="F18" t="n">
-        <v>301.5803364729096</v>
+        <v>75.75167618223905</v>
       </c>
       <c r="G18" t="n">
-        <v>222.672340449744</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="H18" t="n">
-        <v>143.7643444265783</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="I18" t="n">
-        <v>64.85634840341262</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="J18" t="n">
         <v>6.249513285034721</v>
       </c>
       <c r="K18" t="n">
-        <v>6.249513285034721</v>
+        <v>34.97704472787882</v>
       </c>
       <c r="L18" t="n">
-        <v>83.58724018733939</v>
+        <v>112.3147716301835</v>
       </c>
       <c r="M18" t="n">
-        <v>160.924967089644</v>
+        <v>167.2290003989282</v>
       </c>
       <c r="N18" t="n">
-        <v>228.8339040401472</v>
+        <v>235.1379373494314</v>
       </c>
       <c r="O18" t="n">
-        <v>258.4608637840521</v>
+        <v>312.475664251736</v>
       </c>
       <c r="P18" t="n">
         <v>312.475664251736</v>
       </c>
       <c r="Q18" t="n">
-        <v>301.5803364729096</v>
+        <v>312.475664251736</v>
       </c>
       <c r="R18" t="n">
-        <v>301.5803364729096</v>
+        <v>233.5676682285704</v>
       </c>
       <c r="S18" t="n">
-        <v>301.5803364729096</v>
+        <v>154.6596722054047</v>
       </c>
       <c r="T18" t="n">
-        <v>301.5803364729096</v>
+        <v>154.6596722054047</v>
       </c>
       <c r="U18" t="n">
-        <v>301.5803364729096</v>
+        <v>154.6596722054047</v>
       </c>
       <c r="V18" t="n">
-        <v>301.5803364729096</v>
+        <v>75.75167618223905</v>
       </c>
       <c r="W18" t="n">
-        <v>301.5803364729096</v>
+        <v>75.75167618223905</v>
       </c>
       <c r="X18" t="n">
-        <v>301.5803364729096</v>
+        <v>75.75167618223905</v>
       </c>
       <c r="Y18" t="n">
-        <v>301.5803364729096</v>
+        <v>75.75167618223905</v>
       </c>
     </row>
     <row r="19">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>86.3514387073801</v>
+        <v>85.15750930820039</v>
       </c>
       <c r="C20" t="n">
-        <v>86.3514387073801</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="D20" t="n">
-        <v>86.3514387073801</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="E20" t="n">
-        <v>7.443442684214432</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="F20" t="n">
-        <v>7.443442684214432</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="G20" t="n">
-        <v>7.443442684214432</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="H20" t="n">
-        <v>7.443442684214432</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="I20" t="n">
-        <v>7.443442684214432</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="J20" t="n">
         <v>6.249513285034721</v>
@@ -5773,31 +5773,31 @@
         <v>312.475664251736</v>
       </c>
       <c r="Q20" t="n">
-        <v>244.1674307537114</v>
+        <v>312.475664251736</v>
       </c>
       <c r="R20" t="n">
-        <v>244.1674307537114</v>
+        <v>312.475664251736</v>
       </c>
       <c r="S20" t="n">
-        <v>244.1674307537114</v>
+        <v>312.475664251736</v>
       </c>
       <c r="T20" t="n">
-        <v>244.1674307537114</v>
+        <v>312.475664251736</v>
       </c>
       <c r="U20" t="n">
-        <v>244.1674307537114</v>
+        <v>312.475664251736</v>
       </c>
       <c r="V20" t="n">
-        <v>244.1674307537114</v>
+        <v>242.9735013545317</v>
       </c>
       <c r="W20" t="n">
-        <v>244.1674307537114</v>
+        <v>164.0655053313661</v>
       </c>
       <c r="X20" t="n">
-        <v>165.2594347305458</v>
+        <v>85.15750930820039</v>
       </c>
       <c r="Y20" t="n">
-        <v>165.2594347305458</v>
+        <v>85.15750930820039</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>75.75167618223905</v>
+        <v>64.85634840341262</v>
       </c>
       <c r="C21" t="n">
-        <v>75.75167618223905</v>
+        <v>64.85634840341262</v>
       </c>
       <c r="D21" t="n">
-        <v>75.75167618223905</v>
+        <v>64.85634840341262</v>
       </c>
       <c r="E21" t="n">
-        <v>75.75167618223905</v>
+        <v>64.85634840341262</v>
       </c>
       <c r="F21" t="n">
-        <v>6.249513285034721</v>
+        <v>64.85634840341262</v>
       </c>
       <c r="G21" t="n">
-        <v>6.249513285034721</v>
+        <v>64.85634840341262</v>
       </c>
       <c r="H21" t="n">
-        <v>6.249513285034721</v>
+        <v>64.85634840341262</v>
       </c>
       <c r="I21" t="n">
-        <v>6.249513285034721</v>
+        <v>64.85634840341262</v>
       </c>
       <c r="J21" t="n">
         <v>6.249513285034721</v>
       </c>
       <c r="K21" t="n">
-        <v>6.249513285034721</v>
+        <v>34.97704472787882</v>
       </c>
       <c r="L21" t="n">
-        <v>83.58724018733939</v>
+        <v>91.97340120771685</v>
       </c>
       <c r="M21" t="n">
-        <v>160.924967089644</v>
+        <v>137.6020406550233</v>
       </c>
       <c r="N21" t="n">
+        <v>205.5109776055264</v>
+      </c>
+      <c r="O21" t="n">
         <v>235.1379373494314</v>
-      </c>
-      <c r="O21" t="n">
-        <v>312.475664251736</v>
       </c>
       <c r="P21" t="n">
         <v>312.475664251736</v>
       </c>
       <c r="Q21" t="n">
-        <v>312.475664251736</v>
+        <v>301.5803364729096</v>
       </c>
       <c r="R21" t="n">
-        <v>312.475664251736</v>
+        <v>301.5803364729096</v>
       </c>
       <c r="S21" t="n">
-        <v>233.5676682285704</v>
+        <v>301.5803364729096</v>
       </c>
       <c r="T21" t="n">
-        <v>154.6596722054047</v>
+        <v>301.5803364729096</v>
       </c>
       <c r="U21" t="n">
-        <v>154.6596722054047</v>
+        <v>222.672340449744</v>
       </c>
       <c r="V21" t="n">
-        <v>75.75167618223905</v>
+        <v>143.7643444265783</v>
       </c>
       <c r="W21" t="n">
-        <v>75.75167618223905</v>
+        <v>64.85634840341262</v>
       </c>
       <c r="X21" t="n">
-        <v>75.75167618223905</v>
+        <v>64.85634840341262</v>
       </c>
       <c r="Y21" t="n">
-        <v>75.75167618223905</v>
+        <v>64.85634840341262</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="C22" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="D22" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="E22" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="F22" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="G22" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="H22" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="I22" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="J22" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="K22" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="L22" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="M22" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="N22" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="O22" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="P22" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="Q22" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="R22" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="S22" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="T22" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="U22" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="V22" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="W22" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="X22" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="Y22" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034721</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>155.8857617220492</v>
+        <v>118.7411592158857</v>
       </c>
       <c r="C23" t="n">
-        <v>155.8857617220492</v>
+        <v>8.71413992762986</v>
       </c>
       <c r="D23" t="n">
-        <v>155.8857617220492</v>
+        <v>8.71413992762986</v>
       </c>
       <c r="E23" t="n">
-        <v>155.8857617220492</v>
+        <v>8.71413992762986</v>
       </c>
       <c r="F23" t="n">
-        <v>155.8857617220492</v>
+        <v>8.71413992762986</v>
       </c>
       <c r="G23" t="n">
-        <v>155.8857617220492</v>
+        <v>8.71413992762986</v>
       </c>
       <c r="H23" t="n">
-        <v>155.8857617220492</v>
+        <v>8.71413992762986</v>
       </c>
       <c r="I23" t="n">
-        <v>71.15934945552672</v>
+        <v>8.71413992762986</v>
       </c>
       <c r="J23" t="n">
         <v>8.71413992762986</v>
@@ -6019,22 +6019,22 @@
         <v>375.9398002985608</v>
       </c>
       <c r="T23" t="n">
-        <v>265.912781010305</v>
+        <v>375.9398002985608</v>
       </c>
       <c r="U23" t="n">
-        <v>155.8857617220492</v>
+        <v>338.7951977923973</v>
       </c>
       <c r="V23" t="n">
-        <v>155.8857617220492</v>
+        <v>228.7681785041415</v>
       </c>
       <c r="W23" t="n">
-        <v>155.8857617220492</v>
+        <v>118.7411592158857</v>
       </c>
       <c r="X23" t="n">
-        <v>155.8857617220492</v>
+        <v>118.7411592158857</v>
       </c>
       <c r="Y23" t="n">
-        <v>155.8857617220492</v>
+        <v>118.7411592158857</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>8.71413992762986</v>
+        <v>338.7951977923973</v>
       </c>
       <c r="C24" t="n">
-        <v>8.71413992762986</v>
+        <v>338.7951977923973</v>
       </c>
       <c r="D24" t="n">
-        <v>8.71413992762986</v>
+        <v>228.7681785041415</v>
       </c>
       <c r="E24" t="n">
-        <v>8.71413992762986</v>
+        <v>118.7411592158857</v>
       </c>
       <c r="F24" t="n">
-        <v>8.71413992762986</v>
+        <v>118.7411592158857</v>
       </c>
       <c r="G24" t="n">
         <v>8.71413992762986</v>
@@ -6077,43 +6077,43 @@
         <v>116.5516215320494</v>
       </c>
       <c r="M24" t="n">
-        <v>224.3891031364689</v>
+        <v>162.1802609793558</v>
       </c>
       <c r="N24" t="n">
-        <v>332.2265847408884</v>
+        <v>270.0177425837754</v>
       </c>
       <c r="O24" t="n">
-        <v>435.706996381493</v>
+        <v>358.2310419609744</v>
       </c>
       <c r="P24" t="n">
         <v>435.706996381493</v>
       </c>
       <c r="Q24" t="n">
-        <v>413.3229233615196</v>
+        <v>435.706996381493</v>
       </c>
       <c r="R24" t="n">
-        <v>413.3229233615196</v>
+        <v>435.706996381493</v>
       </c>
       <c r="S24" t="n">
-        <v>413.3229233615196</v>
+        <v>338.7951977923973</v>
       </c>
       <c r="T24" t="n">
-        <v>303.2959040732638</v>
+        <v>338.7951977923973</v>
       </c>
       <c r="U24" t="n">
-        <v>193.268884785008</v>
+        <v>338.7951977923973</v>
       </c>
       <c r="V24" t="n">
-        <v>83.24186549675215</v>
+        <v>338.7951977923973</v>
       </c>
       <c r="W24" t="n">
-        <v>8.71413992762986</v>
+        <v>338.7951977923973</v>
       </c>
       <c r="X24" t="n">
-        <v>8.71413992762986</v>
+        <v>338.7951977923973</v>
       </c>
       <c r="Y24" t="n">
-        <v>8.71413992762986</v>
+        <v>338.7951977923973</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>435.706996381493</v>
+        <v>8.71413992762986</v>
       </c>
       <c r="C25" t="n">
-        <v>435.706996381493</v>
+        <v>8.71413992762986</v>
       </c>
       <c r="D25" t="n">
-        <v>435.706996381493</v>
+        <v>8.71413992762986</v>
       </c>
       <c r="E25" t="n">
-        <v>435.706996381493</v>
+        <v>8.71413992762986</v>
       </c>
       <c r="F25" t="n">
-        <v>435.706996381493</v>
+        <v>8.71413992762986</v>
       </c>
       <c r="G25" t="n">
-        <v>435.706996381493</v>
+        <v>8.71413992762986</v>
       </c>
       <c r="H25" t="n">
-        <v>435.706996381493</v>
+        <v>8.71413992762986</v>
       </c>
       <c r="I25" t="n">
-        <v>435.706996381493</v>
+        <v>8.71413992762986</v>
       </c>
       <c r="J25" t="n">
-        <v>435.706996381493</v>
+        <v>8.71413992762986</v>
       </c>
       <c r="K25" t="n">
-        <v>435.706996381493</v>
+        <v>8.71413992762986</v>
       </c>
       <c r="L25" t="n">
-        <v>435.706996381493</v>
+        <v>8.71413992762986</v>
       </c>
       <c r="M25" t="n">
-        <v>435.706996381493</v>
+        <v>8.71413992762986</v>
       </c>
       <c r="N25" t="n">
-        <v>435.706996381493</v>
+        <v>8.71413992762986</v>
       </c>
       <c r="O25" t="n">
-        <v>435.706996381493</v>
+        <v>8.71413992762986</v>
       </c>
       <c r="P25" t="n">
-        <v>435.706996381493</v>
+        <v>8.71413992762986</v>
       </c>
       <c r="Q25" t="n">
-        <v>435.706996381493</v>
+        <v>8.71413992762986</v>
       </c>
       <c r="R25" t="n">
-        <v>435.706996381493</v>
+        <v>8.71413992762986</v>
       </c>
       <c r="S25" t="n">
-        <v>435.706996381493</v>
+        <v>8.71413992762986</v>
       </c>
       <c r="T25" t="n">
-        <v>435.706996381493</v>
+        <v>8.71413992762986</v>
       </c>
       <c r="U25" t="n">
-        <v>435.706996381493</v>
+        <v>8.71413992762986</v>
       </c>
       <c r="V25" t="n">
-        <v>435.706996381493</v>
+        <v>8.71413992762986</v>
       </c>
       <c r="W25" t="n">
-        <v>435.706996381493</v>
+        <v>8.71413992762986</v>
       </c>
       <c r="X25" t="n">
-        <v>435.706996381493</v>
+        <v>8.71413992762986</v>
       </c>
       <c r="Y25" t="n">
-        <v>435.706996381493</v>
+        <v>8.71413992762986</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>228.7681785041415</v>
+        <v>118.7411592158857</v>
       </c>
       <c r="C26" t="n">
         <v>118.7411592158857</v>
       </c>
       <c r="D26" t="n">
-        <v>8.71413992762986</v>
+        <v>118.7411592158857</v>
       </c>
       <c r="E26" t="n">
         <v>8.71413992762986</v>
@@ -6247,31 +6247,31 @@
         <v>375.9398002985608</v>
       </c>
       <c r="Q26" t="n">
-        <v>375.9398002985608</v>
+        <v>338.7951977923973</v>
       </c>
       <c r="R26" t="n">
-        <v>375.9398002985608</v>
+        <v>338.7951977923973</v>
       </c>
       <c r="S26" t="n">
-        <v>375.9398002985608</v>
+        <v>338.7951977923973</v>
       </c>
       <c r="T26" t="n">
-        <v>375.9398002985608</v>
+        <v>338.7951977923973</v>
       </c>
       <c r="U26" t="n">
-        <v>375.9398002985608</v>
+        <v>228.7681785041415</v>
       </c>
       <c r="V26" t="n">
-        <v>375.9398002985608</v>
+        <v>228.7681785041415</v>
       </c>
       <c r="W26" t="n">
-        <v>375.9398002985608</v>
+        <v>118.7411592158857</v>
       </c>
       <c r="X26" t="n">
-        <v>375.9398002985608</v>
+        <v>118.7411592158857</v>
       </c>
       <c r="Y26" t="n">
-        <v>338.7951977923973</v>
+        <v>118.7411592158857</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>105.6259385167256</v>
+        <v>303.2959040732638</v>
       </c>
       <c r="C27" t="n">
-        <v>8.71413992762986</v>
+        <v>303.2959040732638</v>
       </c>
       <c r="D27" t="n">
-        <v>8.71413992762986</v>
+        <v>193.268884785008</v>
       </c>
       <c r="E27" t="n">
-        <v>8.71413992762986</v>
+        <v>118.7411592158857</v>
       </c>
       <c r="F27" t="n">
-        <v>8.71413992762986</v>
+        <v>118.7411592158857</v>
       </c>
       <c r="G27" t="n">
         <v>8.71413992762986</v>
@@ -6308,13 +6308,13 @@
         <v>8.71413992762986</v>
       </c>
       <c r="K27" t="n">
-        <v>8.71413992762986</v>
+        <v>37.44167137047396</v>
       </c>
       <c r="L27" t="n">
-        <v>34.71859714771584</v>
+        <v>136.8559839587453</v>
       </c>
       <c r="M27" t="n">
-        <v>142.5560787521354</v>
+        <v>182.4846234060518</v>
       </c>
       <c r="N27" t="n">
         <v>250.3935603565549</v>
@@ -6326,31 +6326,31 @@
         <v>435.706996381493</v>
       </c>
       <c r="Q27" t="n">
-        <v>435.706996381493</v>
+        <v>413.3229233615196</v>
       </c>
       <c r="R27" t="n">
-        <v>435.706996381493</v>
+        <v>413.3229233615196</v>
       </c>
       <c r="S27" t="n">
-        <v>435.706996381493</v>
+        <v>413.3229233615196</v>
       </c>
       <c r="T27" t="n">
-        <v>435.706996381493</v>
+        <v>413.3229233615196</v>
       </c>
       <c r="U27" t="n">
-        <v>435.706996381493</v>
+        <v>303.2959040732638</v>
       </c>
       <c r="V27" t="n">
-        <v>435.706996381493</v>
+        <v>303.2959040732638</v>
       </c>
       <c r="W27" t="n">
-        <v>325.6799770932372</v>
+        <v>303.2959040732638</v>
       </c>
       <c r="X27" t="n">
-        <v>325.6799770932372</v>
+        <v>303.2959040732638</v>
       </c>
       <c r="Y27" t="n">
-        <v>215.6529578049814</v>
+        <v>303.2959040732638</v>
       </c>
     </row>
     <row r="28">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>118.7411592158857</v>
+        <v>8.71413992762986</v>
       </c>
       <c r="C29" t="n">
-        <v>118.7411592158857</v>
+        <v>8.71413992762986</v>
       </c>
       <c r="D29" t="n">
-        <v>118.7411592158857</v>
+        <v>8.71413992762986</v>
       </c>
       <c r="E29" t="n">
-        <v>118.7411592158857</v>
+        <v>8.71413992762986</v>
       </c>
       <c r="F29" t="n">
-        <v>118.7411592158857</v>
+        <v>8.71413992762986</v>
       </c>
       <c r="G29" t="n">
         <v>8.71413992762986</v>
@@ -6484,31 +6484,31 @@
         <v>375.9398002985608</v>
       </c>
       <c r="Q29" t="n">
-        <v>375.9398002985608</v>
+        <v>307.6315668005363</v>
       </c>
       <c r="R29" t="n">
-        <v>338.7951977923973</v>
+        <v>197.6045475122805</v>
       </c>
       <c r="S29" t="n">
-        <v>338.7951977923973</v>
+        <v>197.6045475122805</v>
       </c>
       <c r="T29" t="n">
-        <v>228.7681785041415</v>
+        <v>197.6045475122805</v>
       </c>
       <c r="U29" t="n">
-        <v>118.7411592158857</v>
+        <v>87.57752822402466</v>
       </c>
       <c r="V29" t="n">
-        <v>118.7411592158857</v>
+        <v>8.71413992762986</v>
       </c>
       <c r="W29" t="n">
-        <v>118.7411592158857</v>
+        <v>8.71413992762986</v>
       </c>
       <c r="X29" t="n">
-        <v>118.7411592158857</v>
+        <v>8.71413992762986</v>
       </c>
       <c r="Y29" t="n">
-        <v>118.7411592158857</v>
+        <v>8.71413992762986</v>
       </c>
     </row>
     <row r="30">
@@ -6518,43 +6518,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>338.2729178531022</v>
+        <v>67.32097504600776</v>
       </c>
       <c r="C30" t="n">
-        <v>338.2729178531022</v>
+        <v>67.32097504600776</v>
       </c>
       <c r="D30" t="n">
-        <v>338.2729178531022</v>
+        <v>67.32097504600776</v>
       </c>
       <c r="E30" t="n">
-        <v>338.2729178531022</v>
+        <v>67.32097504600776</v>
       </c>
       <c r="F30" t="n">
-        <v>338.2729178531022</v>
+        <v>67.32097504600776</v>
       </c>
       <c r="G30" t="n">
-        <v>228.2458985648464</v>
+        <v>67.32097504600776</v>
       </c>
       <c r="H30" t="n">
-        <v>118.2188792765906</v>
+        <v>67.32097504600776</v>
       </c>
       <c r="I30" t="n">
-        <v>8.71413992762986</v>
+        <v>67.32097504600776</v>
       </c>
       <c r="J30" t="n">
         <v>8.71413992762986</v>
       </c>
       <c r="K30" t="n">
-        <v>8.71413992762986</v>
+        <v>37.44167137047396</v>
       </c>
       <c r="L30" t="n">
-        <v>34.71859714771584</v>
+        <v>145.2791529748935</v>
       </c>
       <c r="M30" t="n">
-        <v>142.5560787521354</v>
+        <v>190.9077924221999</v>
       </c>
       <c r="N30" t="n">
-        <v>250.3935603565549</v>
+        <v>298.7452740266195</v>
       </c>
       <c r="O30" t="n">
         <v>358.2310419609744</v>
@@ -6566,28 +6566,28 @@
         <v>413.3229233615196</v>
       </c>
       <c r="R30" t="n">
-        <v>413.3229233615196</v>
+        <v>397.4020329107752</v>
       </c>
       <c r="S30" t="n">
-        <v>413.3229233615196</v>
+        <v>287.3750136225194</v>
       </c>
       <c r="T30" t="n">
-        <v>413.3229233615196</v>
+        <v>287.3750136225194</v>
       </c>
       <c r="U30" t="n">
-        <v>413.3229233615196</v>
+        <v>287.3750136225194</v>
       </c>
       <c r="V30" t="n">
-        <v>413.3229233615196</v>
+        <v>177.3479943342636</v>
       </c>
       <c r="W30" t="n">
-        <v>338.2729178531022</v>
+        <v>67.32097504600776</v>
       </c>
       <c r="X30" t="n">
-        <v>338.2729178531022</v>
+        <v>67.32097504600776</v>
       </c>
       <c r="Y30" t="n">
-        <v>338.2729178531022</v>
+        <v>67.32097504600776</v>
       </c>
     </row>
     <row r="31">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>228.7681785041415</v>
+        <v>8.71413992762986</v>
       </c>
       <c r="C32" t="n">
-        <v>228.7681785041415</v>
+        <v>8.71413992762986</v>
       </c>
       <c r="D32" t="n">
-        <v>118.7411592158857</v>
+        <v>8.71413992762986</v>
       </c>
       <c r="E32" t="n">
-        <v>118.7411592158857</v>
+        <v>8.71413992762986</v>
       </c>
       <c r="F32" t="n">
-        <v>118.7411592158857</v>
+        <v>8.71413992762986</v>
       </c>
       <c r="G32" t="n">
-        <v>118.7411592158857</v>
+        <v>8.71413992762986</v>
       </c>
       <c r="H32" t="n">
         <v>8.71413992762986</v>
@@ -6733,19 +6733,19 @@
         <v>375.9398002985608</v>
       </c>
       <c r="U32" t="n">
-        <v>375.9398002985608</v>
+        <v>265.912781010305</v>
       </c>
       <c r="V32" t="n">
-        <v>375.9398002985608</v>
+        <v>265.912781010305</v>
       </c>
       <c r="W32" t="n">
-        <v>375.9398002985608</v>
+        <v>155.8857617220492</v>
       </c>
       <c r="X32" t="n">
-        <v>375.9398002985608</v>
+        <v>45.8587424337934</v>
       </c>
       <c r="Y32" t="n">
-        <v>338.7951977923973</v>
+        <v>8.71413992762986</v>
       </c>
     </row>
     <row r="33">
@@ -6755,13 +6755,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>325.6799770932372</v>
+        <v>118.7411592158857</v>
       </c>
       <c r="C33" t="n">
-        <v>215.6529578049814</v>
+        <v>8.71413992762986</v>
       </c>
       <c r="D33" t="n">
-        <v>105.6259385167256</v>
+        <v>8.71413992762986</v>
       </c>
       <c r="E33" t="n">
         <v>8.71413992762986</v>
@@ -6782,19 +6782,19 @@
         <v>8.71413992762986</v>
       </c>
       <c r="K33" t="n">
-        <v>37.44167137047396</v>
+        <v>8.71413992762986</v>
       </c>
       <c r="L33" t="n">
-        <v>145.2791529748935</v>
+        <v>116.5516215320494</v>
       </c>
       <c r="M33" t="n">
-        <v>253.116634579313</v>
+        <v>224.3891031364689</v>
       </c>
       <c r="N33" t="n">
-        <v>360.9541161837325</v>
+        <v>292.298040086972</v>
       </c>
       <c r="O33" t="n">
-        <v>435.706996381493</v>
+        <v>358.2310419609744</v>
       </c>
       <c r="P33" t="n">
         <v>435.706996381493</v>
@@ -6806,25 +6806,25 @@
         <v>435.706996381493</v>
       </c>
       <c r="S33" t="n">
-        <v>435.706996381493</v>
+        <v>325.6799770932372</v>
       </c>
       <c r="T33" t="n">
-        <v>435.706996381493</v>
+        <v>325.6799770932372</v>
       </c>
       <c r="U33" t="n">
-        <v>435.706996381493</v>
+        <v>325.6799770932372</v>
       </c>
       <c r="V33" t="n">
-        <v>435.706996381493</v>
+        <v>325.6799770932372</v>
       </c>
       <c r="W33" t="n">
-        <v>435.706996381493</v>
+        <v>325.6799770932372</v>
       </c>
       <c r="X33" t="n">
-        <v>435.706996381493</v>
+        <v>215.6529578049814</v>
       </c>
       <c r="Y33" t="n">
-        <v>325.6799770932372</v>
+        <v>215.6529578049814</v>
       </c>
     </row>
     <row r="34">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>85.15750930820039</v>
+        <v>68.69472281293157</v>
       </c>
       <c r="C35" t="n">
-        <v>85.15750930820039</v>
+        <v>68.69472281293157</v>
       </c>
       <c r="D35" t="n">
-        <v>85.15750930820039</v>
+        <v>68.69472281293157</v>
       </c>
       <c r="E35" t="n">
-        <v>85.15750930820039</v>
+        <v>68.69472281293157</v>
       </c>
       <c r="F35" t="n">
-        <v>85.15750930820039</v>
+        <v>68.69472281293157</v>
       </c>
       <c r="G35" t="n">
-        <v>6.249513285034721</v>
+        <v>68.69472281293157</v>
       </c>
       <c r="H35" t="n">
-        <v>6.249513285034721</v>
+        <v>68.69472281293157</v>
       </c>
       <c r="I35" t="n">
-        <v>6.249513285034721</v>
+        <v>68.69472281293157</v>
       </c>
       <c r="J35" t="n">
         <v>6.249513285034721</v>
@@ -6961,28 +6961,28 @@
         <v>312.475664251736</v>
       </c>
       <c r="R35" t="n">
-        <v>312.475664251736</v>
+        <v>233.5676682285703</v>
       </c>
       <c r="S35" t="n">
-        <v>312.475664251736</v>
+        <v>154.6596722054047</v>
       </c>
       <c r="T35" t="n">
-        <v>312.475664251736</v>
+        <v>154.6596722054047</v>
       </c>
       <c r="U35" t="n">
-        <v>312.475664251736</v>
+        <v>75.751676182239</v>
       </c>
       <c r="V35" t="n">
-        <v>312.475664251736</v>
+        <v>75.751676182239</v>
       </c>
       <c r="W35" t="n">
-        <v>242.9735013545317</v>
+        <v>68.69472281293157</v>
       </c>
       <c r="X35" t="n">
-        <v>164.0655053313661</v>
+        <v>68.69472281293157</v>
       </c>
       <c r="Y35" t="n">
-        <v>85.15750930820039</v>
+        <v>68.69472281293157</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>75.75167618223905</v>
+        <v>132.2755991854313</v>
       </c>
       <c r="C36" t="n">
-        <v>64.85634840341262</v>
+        <v>132.2755991854313</v>
       </c>
       <c r="D36" t="n">
-        <v>64.85634840341262</v>
+        <v>132.2755991854313</v>
       </c>
       <c r="E36" t="n">
-        <v>64.85634840341262</v>
+        <v>132.2755991854313</v>
       </c>
       <c r="F36" t="n">
-        <v>64.85634840341262</v>
+        <v>85.15750930820039</v>
       </c>
       <c r="G36" t="n">
-        <v>64.85634840341262</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="H36" t="n">
-        <v>64.85634840341262</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="I36" t="n">
-        <v>64.85634840341262</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="J36" t="n">
         <v>6.249513285034721</v>
@@ -7022,46 +7022,46 @@
         <v>34.97704472787882</v>
       </c>
       <c r="L36" t="n">
-        <v>82.5446112559153</v>
+        <v>112.3147716301835</v>
       </c>
       <c r="M36" t="n">
-        <v>128.1732507032218</v>
+        <v>189.6524985324882</v>
       </c>
       <c r="N36" t="n">
-        <v>205.5109776055264</v>
+        <v>257.5614354829913</v>
       </c>
       <c r="O36" t="n">
-        <v>235.1379373494314</v>
+        <v>312.475664251736</v>
       </c>
       <c r="P36" t="n">
         <v>312.475664251736</v>
       </c>
       <c r="Q36" t="n">
-        <v>312.475664251736</v>
+        <v>290.0915912317626</v>
       </c>
       <c r="R36" t="n">
-        <v>312.475664251736</v>
+        <v>211.183595208597</v>
       </c>
       <c r="S36" t="n">
-        <v>312.475664251736</v>
+        <v>132.2755991854313</v>
       </c>
       <c r="T36" t="n">
-        <v>312.475664251736</v>
+        <v>132.2755991854313</v>
       </c>
       <c r="U36" t="n">
-        <v>312.475664251736</v>
+        <v>132.2755991854313</v>
       </c>
       <c r="V36" t="n">
-        <v>312.475664251736</v>
+        <v>132.2755991854313</v>
       </c>
       <c r="W36" t="n">
-        <v>233.5676682285704</v>
+        <v>132.2755991854313</v>
       </c>
       <c r="X36" t="n">
-        <v>233.5676682285704</v>
+        <v>132.2755991854313</v>
       </c>
       <c r="Y36" t="n">
-        <v>154.6596722054047</v>
+        <v>132.2755991854313</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="C37" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="D37" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="E37" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="F37" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="G37" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="H37" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="I37" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="J37" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="K37" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="L37" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="M37" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="N37" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="O37" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="P37" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="Q37" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="R37" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="S37" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="T37" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="U37" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="V37" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="W37" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="X37" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="Y37" t="n">
-        <v>312.475664251736</v>
+        <v>6.249513285034721</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>85.15750930820039</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="C38" t="n">
-        <v>85.15750930820039</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="D38" t="n">
-        <v>85.15750930820039</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="E38" t="n">
-        <v>85.15750930820039</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="F38" t="n">
-        <v>85.15750930820039</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="G38" t="n">
-        <v>85.15750930820039</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="H38" t="n">
-        <v>85.15750930820039</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="I38" t="n">
         <v>6.249513285034721</v>
@@ -7198,28 +7198,28 @@
         <v>244.1674307537114</v>
       </c>
       <c r="R38" t="n">
+        <v>244.1674307537114</v>
+      </c>
+      <c r="S38" t="n">
+        <v>244.1674307537114</v>
+      </c>
+      <c r="T38" t="n">
+        <v>244.1674307537114</v>
+      </c>
+      <c r="U38" t="n">
         <v>165.2594347305458</v>
       </c>
-      <c r="S38" t="n">
+      <c r="V38" t="n">
         <v>86.3514387073801</v>
       </c>
-      <c r="T38" t="n">
-        <v>85.15750930820039</v>
-      </c>
-      <c r="U38" t="n">
-        <v>85.15750930820039</v>
-      </c>
-      <c r="V38" t="n">
-        <v>85.15750930820039</v>
-      </c>
       <c r="W38" t="n">
-        <v>85.15750930820039</v>
+        <v>7.443442684214432</v>
       </c>
       <c r="X38" t="n">
-        <v>85.15750930820039</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="Y38" t="n">
-        <v>85.15750930820039</v>
+        <v>6.249513285034721</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>132.2755991854313</v>
+        <v>85.15750930820039</v>
       </c>
       <c r="C39" t="n">
-        <v>53.36760316226564</v>
+        <v>85.15750930820039</v>
       </c>
       <c r="D39" t="n">
-        <v>53.36760316226564</v>
+        <v>85.15750930820039</v>
       </c>
       <c r="E39" t="n">
-        <v>6.249513285034721</v>
+        <v>85.15750930820039</v>
       </c>
       <c r="F39" t="n">
-        <v>6.249513285034721</v>
+        <v>85.15750930820039</v>
       </c>
       <c r="G39" t="n">
         <v>6.249513285034721</v>
@@ -7256,10 +7256,10 @@
         <v>6.249513285034721</v>
       </c>
       <c r="K39" t="n">
-        <v>6.249513285034721</v>
+        <v>34.97704472787882</v>
       </c>
       <c r="L39" t="n">
-        <v>60.26431375271864</v>
+        <v>91.97340120771685</v>
       </c>
       <c r="M39" t="n">
         <v>137.6020406550233</v>
@@ -7274,31 +7274,31 @@
         <v>312.475664251736</v>
       </c>
       <c r="Q39" t="n">
-        <v>290.0915912317626</v>
+        <v>312.475664251736</v>
       </c>
       <c r="R39" t="n">
-        <v>211.183595208597</v>
+        <v>312.475664251736</v>
       </c>
       <c r="S39" t="n">
-        <v>211.183595208597</v>
+        <v>312.475664251736</v>
       </c>
       <c r="T39" t="n">
-        <v>211.183595208597</v>
+        <v>312.475664251736</v>
       </c>
       <c r="U39" t="n">
-        <v>211.183595208597</v>
+        <v>233.5676682285704</v>
       </c>
       <c r="V39" t="n">
-        <v>211.183595208597</v>
+        <v>164.0655053313661</v>
       </c>
       <c r="W39" t="n">
-        <v>132.2755991854313</v>
+        <v>164.0655053313661</v>
       </c>
       <c r="X39" t="n">
-        <v>132.2755991854313</v>
+        <v>164.0655053313661</v>
       </c>
       <c r="Y39" t="n">
-        <v>132.2755991854313</v>
+        <v>164.0655053313661</v>
       </c>
     </row>
     <row r="40">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>233.5676682285703</v>
+        <v>154.6596722054047</v>
       </c>
       <c r="C41" t="n">
         <v>154.6596722054047</v>
       </c>
       <c r="D41" t="n">
-        <v>154.6596722054047</v>
+        <v>85.15750930820039</v>
       </c>
       <c r="E41" t="n">
-        <v>154.6596722054047</v>
+        <v>85.15750930820039</v>
       </c>
       <c r="F41" t="n">
-        <v>154.6596722054047</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="G41" t="n">
-        <v>154.6596722054047</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="H41" t="n">
-        <v>147.6027188360972</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="I41" t="n">
-        <v>68.69472281293157</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="J41" t="n">
         <v>6.249513285034721</v>
@@ -7444,19 +7444,19 @@
         <v>312.475664251736</v>
       </c>
       <c r="U41" t="n">
-        <v>312.475664251736</v>
+        <v>233.5676682285703</v>
       </c>
       <c r="V41" t="n">
-        <v>312.475664251736</v>
+        <v>233.5676682285703</v>
       </c>
       <c r="W41" t="n">
-        <v>312.475664251736</v>
+        <v>233.5676682285703</v>
       </c>
       <c r="X41" t="n">
-        <v>312.475664251736</v>
+        <v>154.6596722054047</v>
       </c>
       <c r="Y41" t="n">
-        <v>233.5676682285703</v>
+        <v>154.6596722054047</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>222.672340449744</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="C42" t="n">
-        <v>222.672340449744</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="D42" t="n">
-        <v>222.672340449744</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="E42" t="n">
-        <v>143.7643444265783</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="F42" t="n">
-        <v>143.7643444265783</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="G42" t="n">
-        <v>143.7643444265783</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="H42" t="n">
-        <v>143.7643444265783</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="I42" t="n">
-        <v>64.85634840341262</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="J42" t="n">
         <v>6.249513285034721</v>
@@ -7496,13 +7496,13 @@
         <v>34.97704472787882</v>
       </c>
       <c r="L42" t="n">
-        <v>91.97340120771685</v>
+        <v>49.81844984289267</v>
       </c>
       <c r="M42" t="n">
-        <v>137.6020406550233</v>
+        <v>95.44708929019913</v>
       </c>
       <c r="N42" t="n">
-        <v>205.5109776055264</v>
+        <v>163.3560262407022</v>
       </c>
       <c r="O42" t="n">
         <v>235.1379373494314</v>
@@ -7511,31 +7511,31 @@
         <v>312.475664251736</v>
       </c>
       <c r="Q42" t="n">
-        <v>301.5803364729096</v>
+        <v>290.0915912317626</v>
       </c>
       <c r="R42" t="n">
-        <v>301.5803364729096</v>
+        <v>242.9735013545317</v>
       </c>
       <c r="S42" t="n">
-        <v>301.5803364729096</v>
+        <v>164.0655053313661</v>
       </c>
       <c r="T42" t="n">
-        <v>301.5803364729096</v>
+        <v>85.15750930820039</v>
       </c>
       <c r="U42" t="n">
-        <v>301.5803364729096</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="V42" t="n">
-        <v>301.5803364729096</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="W42" t="n">
-        <v>222.672340449744</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="X42" t="n">
-        <v>222.672340449744</v>
+        <v>6.249513285034721</v>
       </c>
       <c r="Y42" t="n">
-        <v>222.672340449744</v>
+        <v>6.249513285034721</v>
       </c>
     </row>
     <row r="43">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>165.2594347305458</v>
+        <v>85.15750930820039</v>
       </c>
       <c r="C44" t="n">
-        <v>165.2594347305458</v>
+        <v>85.15750930820039</v>
       </c>
       <c r="D44" t="n">
-        <v>165.2594347305458</v>
+        <v>85.15750930820039</v>
       </c>
       <c r="E44" t="n">
-        <v>164.0655053313661</v>
+        <v>85.15750930820039</v>
       </c>
       <c r="F44" t="n">
         <v>85.15750930820039</v>
@@ -7669,31 +7669,31 @@
         <v>312.475664251736</v>
       </c>
       <c r="Q44" t="n">
-        <v>244.1674307537115</v>
+        <v>312.475664251736</v>
       </c>
       <c r="R44" t="n">
-        <v>244.1674307537115</v>
+        <v>312.475664251736</v>
       </c>
       <c r="S44" t="n">
-        <v>244.1674307537115</v>
+        <v>312.475664251736</v>
       </c>
       <c r="T44" t="n">
-        <v>244.1674307537115</v>
+        <v>312.475664251736</v>
       </c>
       <c r="U44" t="n">
-        <v>244.1674307537115</v>
+        <v>233.5676682285704</v>
       </c>
       <c r="V44" t="n">
-        <v>244.1674307537115</v>
+        <v>154.6596722054047</v>
       </c>
       <c r="W44" t="n">
-        <v>244.1674307537115</v>
+        <v>85.15750930820039</v>
       </c>
       <c r="X44" t="n">
-        <v>244.1674307537115</v>
+        <v>85.15750930820039</v>
       </c>
       <c r="Y44" t="n">
-        <v>165.2594347305458</v>
+        <v>85.15750930820039</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>6.249513285034721</v>
+        <v>132.2755991854313</v>
       </c>
       <c r="C45" t="n">
-        <v>6.249513285034721</v>
+        <v>132.2755991854313</v>
       </c>
       <c r="D45" t="n">
-        <v>6.249513285034721</v>
+        <v>132.2755991854313</v>
       </c>
       <c r="E45" t="n">
-        <v>6.249513285034721</v>
+        <v>132.2755991854313</v>
       </c>
       <c r="F45" t="n">
-        <v>6.249513285034721</v>
+        <v>53.36760316226564</v>
       </c>
       <c r="G45" t="n">
         <v>6.249513285034721</v>
@@ -7733,16 +7733,16 @@
         <v>34.97704472787882</v>
       </c>
       <c r="L45" t="n">
-        <v>80.46248354482202</v>
+        <v>49.81844984289267</v>
       </c>
       <c r="M45" t="n">
-        <v>157.8002104471267</v>
+        <v>95.44708929019913</v>
       </c>
       <c r="N45" t="n">
+        <v>172.7848161925038</v>
+      </c>
+      <c r="O45" t="n">
         <v>235.1379373494314</v>
-      </c>
-      <c r="O45" t="n">
-        <v>312.475664251736</v>
       </c>
       <c r="P45" t="n">
         <v>312.475664251736</v>
@@ -7763,16 +7763,16 @@
         <v>211.183595208597</v>
       </c>
       <c r="V45" t="n">
+        <v>211.183595208597</v>
+      </c>
+      <c r="W45" t="n">
         <v>132.2755991854313</v>
       </c>
-      <c r="W45" t="n">
-        <v>53.36760316226564</v>
-      </c>
       <c r="X45" t="n">
-        <v>53.36760316226564</v>
+        <v>132.2755991854313</v>
       </c>
       <c r="Y45" t="n">
-        <v>6.249513285034721</v>
+        <v>132.2755991854313</v>
       </c>
     </row>
     <row r="46">
@@ -8063,16 +8063,16 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L3" t="n">
-        <v>74.46383841624066</v>
+        <v>74.46383841624069</v>
       </c>
       <c r="M3" t="n">
-        <v>58.30041376309507</v>
+        <v>58.30041376309512</v>
       </c>
       <c r="N3" t="n">
-        <v>38.55795406611836</v>
+        <v>38.55795406611844</v>
       </c>
       <c r="O3" t="n">
-        <v>68.09769251534209</v>
+        <v>68.09769251534215</v>
       </c>
       <c r="P3" t="n">
         <v>82.80031984638366</v>
@@ -8549,7 +8549,7 @@
         <v>50.30088672752632</v>
       </c>
       <c r="P9" t="n">
-        <v>68.93110769910052</v>
+        <v>68.93110769910051</v>
       </c>
       <c r="Q9" t="n">
         <v>54.62009481132077</v>
@@ -8698,10 +8698,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>86.06568567569721</v>
+        <v>86.06568567569724</v>
       </c>
       <c r="N11" t="n">
-        <v>79.37841942921133</v>
+        <v>79.37841942921136</v>
       </c>
       <c r="O11" t="n">
         <v>99.00804712831379</v>
@@ -8771,19 +8771,19 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>68.76096162327045</v>
+        <v>39.74325309514509</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>23.40577338309954</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>42.58075895436785</v>
+        <v>48.19269409939366</v>
       </c>
       <c r="P12" t="n">
         <v>82.66069609061199</v>
@@ -9008,22 +9008,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K15" t="n">
-        <v>39.74325309514509</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L15" t="n">
         <v>63.12759776494022</v>
       </c>
       <c r="M15" t="n">
-        <v>8.470869717552979</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>48.19269409939366</v>
       </c>
       <c r="P15" t="n">
-        <v>82.66069609061199</v>
+        <v>13.92116318064593</v>
       </c>
       <c r="Q15" t="n">
         <v>54.62009481132077</v>
@@ -9245,22 +9245,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K18" t="n">
-        <v>39.74325309514509</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L18" t="n">
         <v>63.12759776494022</v>
       </c>
       <c r="M18" t="n">
-        <v>32.02938126767495</v>
+        <v>9.379383152967968</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>48.19269409939366</v>
       </c>
       <c r="P18" t="n">
-        <v>59.10218454049001</v>
+        <v>4.541780027677959</v>
       </c>
       <c r="Q18" t="n">
         <v>54.62009481132077</v>
@@ -9482,22 +9482,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K21" t="n">
-        <v>39.74325309514509</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L21" t="n">
-        <v>63.12759776494022</v>
+        <v>42.58075895436786</v>
       </c>
       <c r="M21" t="n">
-        <v>32.02938126767495</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>6.367710413418394</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>48.19269409939366</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>4.541780027677959</v>
+        <v>82.66069609061199</v>
       </c>
       <c r="Q21" t="n">
         <v>54.62009481132077</v>
@@ -9725,16 +9725,16 @@
         <v>93.93543079737947</v>
       </c>
       <c r="M24" t="n">
-        <v>62.8372143001142</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>40.33186328678426</v>
       </c>
       <c r="O24" t="n">
-        <v>74.59944636030268</v>
+        <v>59.17812084171118</v>
       </c>
       <c r="P24" t="n">
-        <v>4.541780027677959</v>
+        <v>82.80031984638366</v>
       </c>
       <c r="Q24" t="n">
         <v>54.62009481132077</v>
@@ -9956,16 +9956,16 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K27" t="n">
-        <v>39.74325309514509</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L27" t="n">
-        <v>11.27581020714357</v>
+        <v>85.42717926591666</v>
       </c>
       <c r="M27" t="n">
-        <v>62.8372143001142</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>40.33186328678426</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>79.00052713183291</v>
@@ -10193,19 +10193,19 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K30" t="n">
-        <v>39.74325309514509</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L30" t="n">
-        <v>11.27581020714357</v>
+        <v>93.93543079737947</v>
       </c>
       <c r="M30" t="n">
-        <v>62.8372143001142</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>40.33186328678426</v>
       </c>
       <c r="O30" t="n">
-        <v>79.00052713183291</v>
+        <v>30.16041231358582</v>
       </c>
       <c r="P30" t="n">
         <v>82.80031984638366</v>
@@ -10430,7 +10430,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K33" t="n">
-        <v>68.76096162327045</v>
+        <v>39.74325309514509</v>
       </c>
       <c r="L33" t="n">
         <v>93.93543079737947</v>
@@ -10439,13 +10439,13 @@
         <v>62.8372143001142</v>
       </c>
       <c r="N33" t="n">
-        <v>40.33186328678426</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>45.58173783217731</v>
+        <v>36.67276982838122</v>
       </c>
       <c r="P33" t="n">
-        <v>4.541780027677959</v>
+        <v>82.80031984638366</v>
       </c>
       <c r="Q33" t="n">
         <v>54.62009481132077</v>
@@ -10670,19 +10670,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L36" t="n">
-        <v>33.05672870002286</v>
+        <v>63.12759776494022</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>32.02938126767495</v>
       </c>
       <c r="N36" t="n">
-        <v>9.524030254345007</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>25.54269598468668</v>
       </c>
       <c r="P36" t="n">
-        <v>82.66069609061199</v>
+        <v>4.541780027677959</v>
       </c>
       <c r="Q36" t="n">
         <v>54.62009481132077</v>
@@ -10904,13 +10904,13 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K39" t="n">
-        <v>39.74325309514509</v>
+        <v>68.76096162327045</v>
       </c>
       <c r="L39" t="n">
-        <v>39.56908621481825</v>
+        <v>42.58075895436786</v>
       </c>
       <c r="M39" t="n">
-        <v>32.02938126767495</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -11144,7 +11144,7 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L42" t="n">
-        <v>42.58075895436786</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,7 +11153,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>42.58075895436785</v>
       </c>
       <c r="P42" t="n">
         <v>82.66069609061199</v>
@@ -11381,19 +11381,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L45" t="n">
-        <v>30.95356939588824</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>32.02938126767495</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>9.524030254345007</v>
       </c>
       <c r="O45" t="n">
-        <v>48.19269409939366</v>
+        <v>33.05672870002284</v>
       </c>
       <c r="P45" t="n">
-        <v>4.541780027677959</v>
+        <v>82.66069609061199</v>
       </c>
       <c r="Q45" t="n">
         <v>54.62009481132077</v>
@@ -22573,25 +22573,25 @@
         <v>127.1748039695566</v>
       </c>
       <c r="K2" t="n">
-        <v>97.2619460033516</v>
+        <v>97.26194600335165</v>
       </c>
       <c r="L2" t="n">
-        <v>62.11023461264656</v>
+        <v>62.11023461264665</v>
       </c>
       <c r="M2" t="n">
-        <v>26.28111816605019</v>
+        <v>26.28111816605028</v>
       </c>
       <c r="N2" t="n">
-        <v>24.94497492834799</v>
+        <v>24.94497492834807</v>
       </c>
       <c r="O2" t="n">
-        <v>51.61992083835329</v>
+        <v>51.61992083835338</v>
       </c>
       <c r="P2" t="n">
-        <v>95.8572092663087</v>
+        <v>95.85720926630876</v>
       </c>
       <c r="Q2" t="n">
-        <v>150.7780905932667</v>
+        <v>150.7780905932668</v>
       </c>
       <c r="R2" t="n">
         <v>228.9035191519035</v>
@@ -22649,10 +22649,10 @@
         <v>122.5945819707573</v>
       </c>
       <c r="J3" t="n">
-        <v>96.94518916455445</v>
+        <v>96.94518916455448</v>
       </c>
       <c r="K3" t="n">
-        <v>37.51032913974595</v>
+        <v>37.51032913974599</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -22667,10 +22667,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.4142934915526268</v>
+        <v>0.4142934915526695</v>
       </c>
       <c r="Q3" t="n">
-        <v>74.75093789549187</v>
+        <v>74.7509378954919</v>
       </c>
       <c r="R3" t="n">
         <v>164.569756422626</v>
@@ -22734,19 +22734,19 @@
         <v>103.4307696115149</v>
       </c>
       <c r="L4" t="n">
-        <v>81.44810368695141</v>
+        <v>81.44810368695144</v>
       </c>
       <c r="M4" t="n">
-        <v>79.18948695681894</v>
+        <v>79.18948695681897</v>
       </c>
       <c r="N4" t="n">
-        <v>66.33514889198575</v>
+        <v>66.33514889198578</v>
       </c>
       <c r="O4" t="n">
-        <v>90.15076812864585</v>
+        <v>90.15076812864588</v>
       </c>
       <c r="P4" t="n">
-        <v>106.4702608763839</v>
+        <v>106.470260876384</v>
       </c>
       <c r="Q4" t="n">
         <v>163.1462310479201</v>
@@ -23217,7 +23217,7 @@
         <v>56.73884728383211</v>
       </c>
       <c r="O10" t="n">
-        <v>81.2870303870922</v>
+        <v>81.28703038709219</v>
       </c>
       <c r="P10" t="n">
         <v>98.88580198047258</v>
@@ -23269,16 +23269,16 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F11" t="n">
-        <v>321.0275015104351</v>
+        <v>392.1600337377546</v>
       </c>
       <c r="G11" t="n">
         <v>343.5980083141037</v>
       </c>
       <c r="H11" t="n">
-        <v>266.792607592614</v>
+        <v>344.911523655548</v>
       </c>
       <c r="I11" t="n">
-        <v>228.4234770310135</v>
+        <v>235.4098608666279</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,10 +23314,10 @@
         <v>217.314039885935</v>
       </c>
       <c r="U11" t="n">
-        <v>248.751741760962</v>
+        <v>170.632825698028</v>
       </c>
       <c r="V11" t="n">
-        <v>313.3044420010231</v>
+        <v>235.1855259380891</v>
       </c>
       <c r="W11" t="n">
         <v>325.3917254792934</v>
@@ -23345,22 +23345,22 @@
         <v>172.0989423795122</v>
       </c>
       <c r="E12" t="n">
-        <v>176.6741707965647</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F12" t="n">
-        <v>95.86543206238991</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G12" t="n">
-        <v>82.64797746280013</v>
+        <v>160.7668935257341</v>
       </c>
       <c r="H12" t="n">
-        <v>57.23557866724644</v>
+        <v>135.3544947301804</v>
       </c>
       <c r="I12" t="n">
         <v>108.4096919554711</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>58.02076676719412</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23390,22 +23390,22 @@
         <v>203.4146524730248</v>
       </c>
       <c r="T12" t="n">
-        <v>229.0953873507019</v>
+        <v>160.2882460824696</v>
       </c>
       <c r="U12" t="n">
         <v>249.6332338908131</v>
       </c>
       <c r="V12" t="n">
-        <v>249.2999251801724</v>
+        <v>171.1810091172384</v>
       </c>
       <c r="W12" t="n">
-        <v>283.2492567629311</v>
+        <v>205.1303406999971</v>
       </c>
       <c r="X12" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y12" t="n">
-        <v>242.8962664135933</v>
+        <v>164.7773503506593</v>
       </c>
     </row>
     <row r="13">
@@ -23494,31 +23494,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>364.5563275970632</v>
+        <v>286.4374115341292</v>
       </c>
       <c r="C14" t="n">
-        <v>333.5971194742085</v>
+        <v>255.4782034112744</v>
       </c>
       <c r="D14" t="n">
         <v>319.1317556432476</v>
       </c>
       <c r="E14" t="n">
-        <v>352.972171100673</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F14" t="n">
-        <v>321.0275015104351</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G14" t="n">
-        <v>343.5980083141037</v>
+        <v>421.7169243770377</v>
       </c>
       <c r="H14" t="n">
-        <v>266.792607592614</v>
+        <v>343.7295335503601</v>
       </c>
       <c r="I14" t="n">
         <v>235.4098608666279</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>61.82075743261788</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,7 +23539,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>67.62515116304431</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>180.5340748210476</v>
@@ -23560,7 +23560,7 @@
         <v>325.3917254792934</v>
       </c>
       <c r="X14" t="n">
-        <v>348.8168793035129</v>
+        <v>270.6979632405789</v>
       </c>
       <c r="Y14" t="n">
         <v>377.9289763951821</v>
@@ -23576,19 +23576,19 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C15" t="n">
-        <v>135.0352863470071</v>
+        <v>125.7235115523054</v>
       </c>
       <c r="D15" t="n">
         <v>93.9800263165782</v>
       </c>
       <c r="E15" t="n">
-        <v>109.3416292346688</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F15" t="n">
-        <v>95.86543206238991</v>
+        <v>105.1772068570916</v>
       </c>
       <c r="G15" t="n">
-        <v>160.7668935257341</v>
+        <v>82.64797746280013</v>
       </c>
       <c r="H15" t="n">
         <v>135.3544947301804</v>
@@ -23740,22 +23740,22 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E17" t="n">
-        <v>352.972171100673</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F17" t="n">
         <v>321.0275015104351</v>
       </c>
       <c r="G17" t="n">
-        <v>343.5980083141037</v>
+        <v>421.7169243770377</v>
       </c>
       <c r="H17" t="n">
-        <v>266.792607592614</v>
+        <v>344.911523655548</v>
       </c>
       <c r="I17" t="n">
         <v>235.4098608666279</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>61.82075743261788</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23788,16 +23788,16 @@
         <v>217.314039885935</v>
       </c>
       <c r="U17" t="n">
-        <v>248.751741760962</v>
+        <v>170.632825698028</v>
       </c>
       <c r="V17" t="n">
-        <v>313.3044420010231</v>
+        <v>244.4973007327909</v>
       </c>
       <c r="W17" t="n">
         <v>325.3917254792934</v>
       </c>
       <c r="X17" t="n">
-        <v>348.8168793035129</v>
+        <v>270.6979632405789</v>
       </c>
       <c r="Y17" t="n">
         <v>377.9289763951821</v>
@@ -23825,16 +23825,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G18" t="n">
-        <v>82.64797746280013</v>
+        <v>91.95975225750185</v>
       </c>
       <c r="H18" t="n">
-        <v>57.23557866724644</v>
+        <v>135.3544947301804</v>
       </c>
       <c r="I18" t="n">
-        <v>30.29077589253714</v>
+        <v>108.4096919554711</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>58.02076676719412</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23855,13 +23855,13 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>11.37385778873554</v>
+        <v>22.16023228977369</v>
       </c>
       <c r="R18" t="n">
-        <v>138.9899725937864</v>
+        <v>60.87105653085243</v>
       </c>
       <c r="S18" t="n">
-        <v>203.4146524730248</v>
+        <v>125.2957364100908</v>
       </c>
       <c r="T18" t="n">
         <v>229.0953873507019</v>
@@ -23870,7 +23870,7 @@
         <v>249.6332338908131</v>
       </c>
       <c r="V18" t="n">
-        <v>249.2999251801724</v>
+        <v>171.1810091172384</v>
       </c>
       <c r="W18" t="n">
         <v>283.2492567629311</v>
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>286.4374115341292</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C20" t="n">
-        <v>333.5971194742085</v>
+        <v>255.4782034112744</v>
       </c>
       <c r="D20" t="n">
         <v>319.1317556432476</v>
       </c>
       <c r="E20" t="n">
-        <v>281.8396388733534</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F20" t="n">
         <v>399.146417573369</v>
@@ -23992,7 +23992,7 @@
         <v>235.4098608666279</v>
       </c>
       <c r="J20" t="n">
-        <v>60.63876732742997</v>
+        <v>61.82075743261788</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24013,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>67.62515116304431</v>
       </c>
       <c r="R20" t="n">
         <v>180.5340748210476</v>
@@ -24028,10 +24028,10 @@
         <v>248.751741760962</v>
       </c>
       <c r="V20" t="n">
-        <v>313.3044420010231</v>
+        <v>244.4973007327909</v>
       </c>
       <c r="W20" t="n">
-        <v>325.3917254792934</v>
+        <v>247.2728094163594</v>
       </c>
       <c r="X20" t="n">
         <v>270.6979632405789</v>
@@ -24059,7 +24059,7 @@
         <v>187.4605452976028</v>
       </c>
       <c r="F21" t="n">
-        <v>105.1772068570916</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G21" t="n">
         <v>160.7668935257341</v>
@@ -24071,7 +24071,7 @@
         <v>108.4096919554711</v>
       </c>
       <c r="J21" t="n">
-        <v>58.02076676719412</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24092,25 +24092,25 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.16023228977369</v>
+        <v>11.37385778873554</v>
       </c>
       <c r="R21" t="n">
         <v>138.9899725937864</v>
       </c>
       <c r="S21" t="n">
-        <v>125.2957364100908</v>
+        <v>203.4146524730248</v>
       </c>
       <c r="T21" t="n">
-        <v>150.9764712877679</v>
+        <v>229.0953873507019</v>
       </c>
       <c r="U21" t="n">
-        <v>249.6332338908131</v>
+        <v>171.5143178278791</v>
       </c>
       <c r="V21" t="n">
         <v>171.1810091172384</v>
       </c>
       <c r="W21" t="n">
-        <v>283.2492567629311</v>
+        <v>205.1303406999971</v>
       </c>
       <c r="X21" t="n">
         <v>230.033063710963</v>
@@ -24208,7 +24208,7 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C23" t="n">
-        <v>333.5971194742085</v>
+        <v>224.6703703788352</v>
       </c>
       <c r="D23" t="n">
         <v>319.1317556432476</v>
@@ -24226,10 +24226,10 @@
         <v>344.911523655548</v>
       </c>
       <c r="I23" t="n">
-        <v>151.5307127227706</v>
+        <v>235.4098608666279</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>61.82075743261788</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24259,16 +24259,16 @@
         <v>224.7019901645579</v>
       </c>
       <c r="T23" t="n">
-        <v>108.3872907905617</v>
+        <v>217.314039885935</v>
       </c>
       <c r="U23" t="n">
-        <v>139.8249926655888</v>
+        <v>211.9785852798601</v>
       </c>
       <c r="V23" t="n">
-        <v>313.3044420010231</v>
+        <v>204.3776929056499</v>
       </c>
       <c r="W23" t="n">
-        <v>325.3917254792934</v>
+        <v>216.4649763839201</v>
       </c>
       <c r="X23" t="n">
         <v>348.8168793035129</v>
@@ -24290,16 +24290,16 @@
         <v>203.8424276152394</v>
       </c>
       <c r="D24" t="n">
-        <v>172.0989423795122</v>
+        <v>63.17219328413896</v>
       </c>
       <c r="E24" t="n">
-        <v>187.4605452976028</v>
+        <v>78.53379620222958</v>
       </c>
       <c r="F24" t="n">
         <v>173.9843481253239</v>
       </c>
       <c r="G24" t="n">
-        <v>160.7668935257341</v>
+        <v>51.84014443036088</v>
       </c>
       <c r="H24" t="n">
         <v>135.3544947301804</v>
@@ -24329,25 +24329,25 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>22.16023228977369</v>
       </c>
       <c r="R24" t="n">
         <v>138.9899725937864</v>
       </c>
       <c r="S24" t="n">
-        <v>203.4146524730248</v>
+        <v>107.47197186982</v>
       </c>
       <c r="T24" t="n">
-        <v>120.1686382553286</v>
+        <v>229.0953873507019</v>
       </c>
       <c r="U24" t="n">
-        <v>140.7064847954398</v>
+        <v>249.6332338908131</v>
       </c>
       <c r="V24" t="n">
-        <v>140.3731760847991</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W24" t="n">
-        <v>209.4668084495</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X24" t="n">
         <v>230.033063710963</v>
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>255.6295785016899</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C26" t="n">
-        <v>224.6703703788352</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D26" t="n">
-        <v>210.2050065478744</v>
+        <v>319.1317556432476</v>
       </c>
       <c r="E26" t="n">
-        <v>359.9585549362873</v>
+        <v>251.0318058409141</v>
       </c>
       <c r="F26" t="n">
         <v>399.146417573369</v>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>67.62515116304431</v>
+        <v>30.85199468194239</v>
       </c>
       <c r="R26" t="n">
         <v>180.5340748210476</v>
@@ -24499,19 +24499,19 @@
         <v>217.314039885935</v>
       </c>
       <c r="U26" t="n">
-        <v>248.751741760962</v>
+        <v>139.8249926655888</v>
       </c>
       <c r="V26" t="n">
         <v>313.3044420010231</v>
       </c>
       <c r="W26" t="n">
-        <v>325.3917254792934</v>
+        <v>216.4649763839201</v>
       </c>
       <c r="X26" t="n">
         <v>348.8168793035129</v>
       </c>
       <c r="Y26" t="n">
-        <v>341.1558199140802</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="27">
@@ -24521,22 +24521,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>79.08600828566119</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C27" t="n">
-        <v>107.8997470120346</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D27" t="n">
-        <v>172.0989423795122</v>
+        <v>63.17219328413896</v>
       </c>
       <c r="E27" t="n">
-        <v>187.4605452976028</v>
+        <v>113.6780969841718</v>
       </c>
       <c r="F27" t="n">
         <v>173.9843481253239</v>
       </c>
       <c r="G27" t="n">
-        <v>160.7668935257341</v>
+        <v>51.84014443036088</v>
       </c>
       <c r="H27" t="n">
         <v>135.3544947301804</v>
@@ -24566,7 +24566,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.16023228977369</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>138.9899725937864</v>
@@ -24578,19 +24578,19 @@
         <v>229.0953873507019</v>
       </c>
       <c r="U27" t="n">
-        <v>249.6332338908131</v>
+        <v>140.7064847954398</v>
       </c>
       <c r="V27" t="n">
         <v>249.2999251801724</v>
       </c>
       <c r="W27" t="n">
-        <v>174.3225076675579</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X27" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y27" t="n">
-        <v>133.9695173182201</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="28">
@@ -24694,7 +24694,7 @@
         <v>399.146417573369</v>
       </c>
       <c r="G29" t="n">
-        <v>312.7901752816645</v>
+        <v>421.7169243770377</v>
       </c>
       <c r="H29" t="n">
         <v>344.911523655548</v>
@@ -24724,22 +24724,22 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>67.62515116304431</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>143.7609183399457</v>
+        <v>71.60732572567437</v>
       </c>
       <c r="S29" t="n">
         <v>224.7019901645579</v>
       </c>
       <c r="T29" t="n">
-        <v>108.3872907905617</v>
+        <v>217.314039885935</v>
       </c>
       <c r="U29" t="n">
         <v>139.8249926655888</v>
       </c>
       <c r="V29" t="n">
-        <v>313.3044420010231</v>
+        <v>235.2296875875923</v>
       </c>
       <c r="W29" t="n">
         <v>325.3917254792934</v>
@@ -24773,16 +24773,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G30" t="n">
-        <v>51.84014443036088</v>
+        <v>160.7668935257341</v>
       </c>
       <c r="H30" t="n">
-        <v>26.4277456348072</v>
+        <v>135.3544947301804</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>108.4096919554711</v>
       </c>
       <c r="J30" t="n">
-        <v>58.02076676719412</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,10 +24806,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>138.9899725937864</v>
+        <v>123.2282910475495</v>
       </c>
       <c r="S30" t="n">
-        <v>203.4146524730248</v>
+        <v>94.48790337765155</v>
       </c>
       <c r="T30" t="n">
         <v>229.0953873507019</v>
@@ -24818,10 +24818,10 @@
         <v>249.6332338908131</v>
       </c>
       <c r="V30" t="n">
-        <v>249.2999251801724</v>
+        <v>140.3731760847991</v>
       </c>
       <c r="W30" t="n">
-        <v>208.9497513095979</v>
+        <v>174.3225076675579</v>
       </c>
       <c r="X30" t="n">
         <v>230.033063710963</v>
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>255.6295785016899</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C32" t="n">
         <v>333.5971194742085</v>
       </c>
       <c r="D32" t="n">
-        <v>210.2050065478744</v>
+        <v>319.1317556432476</v>
       </c>
       <c r="E32" t="n">
         <v>359.9585549362873</v>
@@ -24934,7 +24934,7 @@
         <v>421.7169243770377</v>
       </c>
       <c r="H32" t="n">
-        <v>235.9847745601748</v>
+        <v>344.911523655548</v>
       </c>
       <c r="I32" t="n">
         <v>235.4098608666279</v>
@@ -24973,16 +24973,16 @@
         <v>217.314039885935</v>
       </c>
       <c r="U32" t="n">
-        <v>248.751741760962</v>
+        <v>139.8249926655888</v>
       </c>
       <c r="V32" t="n">
         <v>313.3044420010231</v>
       </c>
       <c r="W32" t="n">
-        <v>325.3917254792934</v>
+        <v>216.4649763839201</v>
       </c>
       <c r="X32" t="n">
-        <v>348.8168793035129</v>
+        <v>239.8901302081397</v>
       </c>
       <c r="Y32" t="n">
         <v>341.1558199140802</v>
@@ -24995,16 +24995,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>188.0127573810344</v>
+        <v>92.0700767778297</v>
       </c>
       <c r="C33" t="n">
         <v>94.91567851986613</v>
       </c>
       <c r="D33" t="n">
-        <v>63.17219328413896</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E33" t="n">
-        <v>91.51786469439809</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F33" t="n">
         <v>173.9843481253239</v>
@@ -25046,7 +25046,7 @@
         <v>138.9899725937864</v>
       </c>
       <c r="S33" t="n">
-        <v>203.4146524730248</v>
+        <v>94.48790337765155</v>
       </c>
       <c r="T33" t="n">
         <v>229.0953873507019</v>
@@ -25061,10 +25061,10 @@
         <v>283.2492567629311</v>
       </c>
       <c r="X33" t="n">
-        <v>230.033063710963</v>
+        <v>121.1063146155897</v>
       </c>
       <c r="Y33" t="n">
-        <v>133.9695173182201</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="34">
@@ -25168,7 +25168,7 @@
         <v>399.146417573369</v>
       </c>
       <c r="G35" t="n">
-        <v>343.5980083141037</v>
+        <v>421.7169243770377</v>
       </c>
       <c r="H35" t="n">
         <v>344.911523655548</v>
@@ -25177,7 +25177,7 @@
         <v>235.4098608666279</v>
       </c>
       <c r="J35" t="n">
-        <v>61.82075743261788</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25201,28 +25201,28 @@
         <v>67.62515116304431</v>
       </c>
       <c r="R35" t="n">
-        <v>180.5340748210476</v>
+        <v>102.4151587581136</v>
       </c>
       <c r="S35" t="n">
-        <v>224.7019901645579</v>
+        <v>146.5830741016239</v>
       </c>
       <c r="T35" t="n">
         <v>217.314039885935</v>
       </c>
       <c r="U35" t="n">
-        <v>248.751741760962</v>
+        <v>170.632825698028</v>
       </c>
       <c r="V35" t="n">
         <v>313.3044420010231</v>
       </c>
       <c r="W35" t="n">
-        <v>256.5845842110612</v>
+        <v>318.405341643679</v>
       </c>
       <c r="X35" t="n">
-        <v>270.6979632405789</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y35" t="n">
-        <v>299.8100603322481</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="36">
@@ -25232,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>109.8938413181004</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C36" t="n">
-        <v>193.0560531142012</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D36" t="n">
         <v>172.0989423795122</v>
@@ -25244,10 +25244,10 @@
         <v>187.4605452976028</v>
       </c>
       <c r="F36" t="n">
-        <v>173.9843481253239</v>
+        <v>127.3374391468653</v>
       </c>
       <c r="G36" t="n">
-        <v>160.7668935257341</v>
+        <v>82.64797746280013</v>
       </c>
       <c r="H36" t="n">
         <v>135.3544947301804</v>
@@ -25256,7 +25256,7 @@
         <v>108.4096919554711</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>58.02076676719412</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25277,13 +25277,13 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.16023228977369</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>138.9899725937864</v>
+        <v>60.87105653085243</v>
       </c>
       <c r="S36" t="n">
-        <v>203.4146524730248</v>
+        <v>125.2957364100908</v>
       </c>
       <c r="T36" t="n">
         <v>229.0953873507019</v>
@@ -25295,13 +25295,13 @@
         <v>249.2999251801724</v>
       </c>
       <c r="W36" t="n">
-        <v>205.1303406999971</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X36" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y36" t="n">
-        <v>164.7773503506593</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="37">
@@ -25411,7 +25411,7 @@
         <v>344.911523655548</v>
       </c>
       <c r="I38" t="n">
-        <v>157.2909448036939</v>
+        <v>235.4098608666279</v>
       </c>
       <c r="J38" t="n">
         <v>61.82075743261788</v>
@@ -25438,25 +25438,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>102.4151587581136</v>
+        <v>180.5340748210476</v>
       </c>
       <c r="S38" t="n">
-        <v>146.5830741016239</v>
+        <v>224.7019901645579</v>
       </c>
       <c r="T38" t="n">
-        <v>216.1320497807471</v>
+        <v>217.314039885935</v>
       </c>
       <c r="U38" t="n">
-        <v>248.751741760962</v>
+        <v>170.632825698028</v>
       </c>
       <c r="V38" t="n">
-        <v>313.3044420010231</v>
+        <v>235.1855259380891</v>
       </c>
       <c r="W38" t="n">
-        <v>325.3917254792934</v>
+        <v>247.2728094163594</v>
       </c>
       <c r="X38" t="n">
-        <v>348.8168793035129</v>
+        <v>347.634889198325</v>
       </c>
       <c r="Y38" t="n">
         <v>377.9289763951821</v>
@@ -25469,22 +25469,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>188.0127573810344</v>
+        <v>109.8938413181004</v>
       </c>
       <c r="C39" t="n">
-        <v>125.7235115523054</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D39" t="n">
         <v>172.0989423795122</v>
       </c>
       <c r="E39" t="n">
-        <v>140.8136363191442</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F39" t="n">
         <v>173.9843481253239</v>
       </c>
       <c r="G39" t="n">
-        <v>160.7668935257341</v>
+        <v>82.64797746280013</v>
       </c>
       <c r="H39" t="n">
         <v>135.3544947301804</v>
@@ -25514,10 +25514,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>22.16023228977369</v>
       </c>
       <c r="R39" t="n">
-        <v>60.87105653085243</v>
+        <v>138.9899725937864</v>
       </c>
       <c r="S39" t="n">
         <v>203.4146524730248</v>
@@ -25526,13 +25526,13 @@
         <v>229.0953873507019</v>
       </c>
       <c r="U39" t="n">
-        <v>249.6332338908131</v>
+        <v>171.5143178278791</v>
       </c>
       <c r="V39" t="n">
-        <v>249.2999251801724</v>
+        <v>180.4927839119401</v>
       </c>
       <c r="W39" t="n">
-        <v>205.1303406999971</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X39" t="n">
         <v>230.033063710963</v>
@@ -25630,28 +25630,28 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C41" t="n">
-        <v>255.4782034112744</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D41" t="n">
-        <v>319.1317556432476</v>
+        <v>250.3246143750154</v>
       </c>
       <c r="E41" t="n">
         <v>359.9585549362873</v>
       </c>
       <c r="F41" t="n">
-        <v>399.146417573369</v>
+        <v>321.0275015104351</v>
       </c>
       <c r="G41" t="n">
         <v>421.7169243770377</v>
       </c>
       <c r="H41" t="n">
-        <v>337.9251398199337</v>
+        <v>344.911523655548</v>
       </c>
       <c r="I41" t="n">
-        <v>157.2909448036939</v>
+        <v>235.4098608666279</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>61.82075743261788</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25684,7 +25684,7 @@
         <v>217.314039885935</v>
       </c>
       <c r="U41" t="n">
-        <v>248.751741760962</v>
+        <v>170.632825698028</v>
       </c>
       <c r="V41" t="n">
         <v>313.3044420010231</v>
@@ -25693,10 +25693,10 @@
         <v>325.3917254792934</v>
       </c>
       <c r="X41" t="n">
-        <v>348.8168793035129</v>
+        <v>270.6979632405789</v>
       </c>
       <c r="Y41" t="n">
-        <v>299.8100603322481</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="42">
@@ -25715,7 +25715,7 @@
         <v>172.0989423795122</v>
       </c>
       <c r="E42" t="n">
-        <v>109.3416292346688</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F42" t="n">
         <v>173.9843481253239</v>
@@ -25727,10 +25727,10 @@
         <v>135.3544947301804</v>
       </c>
       <c r="I42" t="n">
-        <v>30.29077589253714</v>
+        <v>108.4096919554711</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>58.02076676719412</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25751,25 +25751,25 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>11.37385778873554</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>138.9899725937864</v>
+        <v>92.34306361532785</v>
       </c>
       <c r="S42" t="n">
-        <v>203.4146524730248</v>
+        <v>125.2957364100908</v>
       </c>
       <c r="T42" t="n">
-        <v>229.0953873507019</v>
+        <v>150.9764712877679</v>
       </c>
       <c r="U42" t="n">
-        <v>249.6332338908131</v>
+        <v>171.5143178278791</v>
       </c>
       <c r="V42" t="n">
         <v>249.2999251801724</v>
       </c>
       <c r="W42" t="n">
-        <v>205.1303406999971</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X42" t="n">
         <v>230.033063710963</v>
@@ -25873,10 +25873,10 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E44" t="n">
-        <v>358.7765648310994</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F44" t="n">
-        <v>321.0275015104351</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G44" t="n">
         <v>343.5980083141037</v>
@@ -25909,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>67.62515116304431</v>
       </c>
       <c r="R44" t="n">
         <v>180.5340748210476</v>
@@ -25921,19 +25921,19 @@
         <v>217.314039885935</v>
       </c>
       <c r="U44" t="n">
-        <v>248.751741760962</v>
+        <v>170.632825698028</v>
       </c>
       <c r="V44" t="n">
-        <v>313.3044420010231</v>
+        <v>235.1855259380891</v>
       </c>
       <c r="W44" t="n">
-        <v>325.3917254792934</v>
+        <v>256.5845842110611</v>
       </c>
       <c r="X44" t="n">
         <v>348.8168793035129</v>
       </c>
       <c r="Y44" t="n">
-        <v>299.8100603322481</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="45">
@@ -25955,10 +25955,10 @@
         <v>187.4605452976028</v>
       </c>
       <c r="F45" t="n">
-        <v>173.9843481253239</v>
+        <v>95.86543206238991</v>
       </c>
       <c r="G45" t="n">
-        <v>160.7668935257341</v>
+        <v>114.1199845472755</v>
       </c>
       <c r="H45" t="n">
         <v>135.3544947301804</v>
@@ -26003,7 +26003,7 @@
         <v>171.5143178278791</v>
       </c>
       <c r="V45" t="n">
-        <v>171.1810091172384</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W45" t="n">
         <v>205.1303406999971</v>
@@ -26012,7 +26012,7 @@
         <v>230.033063710963</v>
       </c>
       <c r="Y45" t="n">
-        <v>196.2493574351347</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="46">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>436854.7234345487</v>
+        <v>436854.7234345485</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>436854.7234345487</v>
+        <v>436854.7234345485</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>449205.1223720484</v>
+        <v>449205.1223720485</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>449205.1223720484</v>
+        <v>449205.1223720483</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>436854.7234345485</v>
+        <v>436854.7234345488</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>436854.7234345487</v>
+        <v>436854.7234345485</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>436854.7234345487</v>
+        <v>436854.7234345488</v>
       </c>
     </row>
     <row r="16">
@@ -26319,7 +26319,7 @@
         <v>132798.2883786404</v>
       </c>
       <c r="D2" t="n">
-        <v>141754.9928791209</v>
+        <v>141754.9928791208</v>
       </c>
       <c r="E2" t="n">
         <v>186460.5419143279</v>
@@ -26340,7 +26340,7 @@
         <v>191645.6039128534</v>
       </c>
       <c r="K2" t="n">
-        <v>191645.6039128535</v>
+        <v>191645.6039128534</v>
       </c>
       <c r="L2" t="n">
         <v>191645.6039128534</v>
@@ -26352,7 +26352,7 @@
         <v>186460.5419143279</v>
       </c>
       <c r="O2" t="n">
-        <v>186460.5419143278</v>
+        <v>186460.5419143279</v>
       </c>
       <c r="P2" t="n">
         <v>186460.5419143279</v>
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>264455.3853778639</v>
+        <v>264455.3853778638</v>
       </c>
       <c r="C3" t="n">
-        <v>918.4892988068096</v>
+        <v>918.4892988069072</v>
       </c>
       <c r="D3" t="n">
         <v>28918.31204698775</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2118.550955587136</v>
+        <v>2118.550955587137</v>
       </c>
       <c r="C4" t="n">
         <v>2116.323618886231</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-173662.8443217686</v>
+        <v>-191172.4322440272</v>
       </c>
       <c r="C6" t="n">
-        <v>90131.06220347024</v>
+        <v>72634.6538970706</v>
       </c>
       <c r="D6" t="n">
-        <v>70441.09436891106</v>
+        <v>53371.1958006296</v>
       </c>
       <c r="E6" t="n">
-        <v>20445.0669416608</v>
+        <v>5504.004041722614</v>
       </c>
       <c r="F6" t="n">
-        <v>169715.7583669758</v>
+        <v>154774.6954670377</v>
       </c>
       <c r="G6" t="n">
-        <v>169715.7583669758</v>
+        <v>154774.6954670376</v>
       </c>
       <c r="H6" t="n">
-        <v>169715.7583669759</v>
+        <v>154774.6954670376</v>
       </c>
       <c r="I6" t="n">
-        <v>164568.2181519132</v>
+        <v>149874.0629661905</v>
       </c>
       <c r="J6" t="n">
-        <v>172760.6679197325</v>
+        <v>158066.5127340098</v>
       </c>
       <c r="K6" t="n">
-        <v>172760.6679197325</v>
+        <v>158066.5127340097</v>
       </c>
       <c r="L6" t="n">
-        <v>172760.6679197325</v>
+        <v>158066.5127340097</v>
       </c>
       <c r="M6" t="n">
-        <v>157925.6472314444</v>
+        <v>142984.5843315062</v>
       </c>
       <c r="N6" t="n">
-        <v>169715.7583669759</v>
+        <v>154774.6954670377</v>
       </c>
       <c r="O6" t="n">
-        <v>169715.7583669758</v>
+        <v>154774.6954670377</v>
       </c>
       <c r="P6" t="n">
-        <v>169715.7583669758</v>
+        <v>154774.6954670377</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>274.4414877942326</v>
+        <v>274.4414877942325</v>
       </c>
       <c r="C3" t="n">
         <v>275.4501494255565</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>274.4414877942326</v>
+        <v>274.4414877942325</v>
       </c>
       <c r="C3" t="n">
-        <v>1.008661631323904</v>
+        <v>1.008661631324011</v>
       </c>
       <c r="D3" t="n">
         <v>33.76674370921978</v>
@@ -31044,28 +31044,28 @@
         <v>1.103282362991889</v>
       </c>
       <c r="H2" t="n">
-        <v>11.29899049999069</v>
+        <v>11.29899049999068</v>
       </c>
       <c r="I2" t="n">
-        <v>42.53429329924484</v>
+        <v>42.53429329924483</v>
       </c>
       <c r="J2" t="n">
-        <v>93.63971145598293</v>
+        <v>93.63971145598289</v>
       </c>
       <c r="K2" t="n">
         <v>140.3416538814296</v>
       </c>
       <c r="L2" t="n">
-        <v>174.1062314978427</v>
+        <v>174.1062314978426</v>
       </c>
       <c r="M2" t="n">
-        <v>193.7267292206997</v>
+        <v>193.7267292206996</v>
       </c>
       <c r="N2" t="n">
-        <v>196.8614302345504</v>
+        <v>196.8614302345503</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8906662375498</v>
+        <v>185.8906662375497</v>
       </c>
       <c r="P2" t="n">
         <v>158.6533829011875</v>
@@ -31074,16 +31074,16 @@
         <v>119.1420832765404</v>
       </c>
       <c r="R2" t="n">
-        <v>69.30406073428931</v>
+        <v>69.30406073428928</v>
       </c>
       <c r="S2" t="n">
-        <v>25.1410468466777</v>
+        <v>25.14104684667769</v>
       </c>
       <c r="T2" t="n">
-        <v>4.829618543996997</v>
+        <v>4.829618543996995</v>
       </c>
       <c r="U2" t="n">
-        <v>0.08826258903935111</v>
+        <v>0.08826258903935107</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.590308105821557</v>
+        <v>0.5903081058215567</v>
       </c>
       <c r="H3" t="n">
-        <v>5.701133548329248</v>
+        <v>5.701133548329246</v>
       </c>
       <c r="I3" t="n">
         <v>20.32420452061062</v>
       </c>
       <c r="J3" t="n">
-        <v>55.7711706469393</v>
+        <v>55.77117064693928</v>
       </c>
       <c r="K3" t="n">
-        <v>95.32181373698361</v>
+        <v>95.32181373698357</v>
       </c>
       <c r="L3" t="n">
         <v>128.1719420118253</v>
       </c>
       <c r="M3" t="n">
-        <v>149.5706108478568</v>
+        <v>149.5706108478567</v>
       </c>
       <c r="N3" t="n">
-        <v>153.5292998557566</v>
+        <v>153.5292998557565</v>
       </c>
       <c r="O3" t="n">
-        <v>140.4493149846579</v>
+        <v>140.4493149846578</v>
       </c>
       <c r="P3" t="n">
         <v>112.7229575055217</v>
       </c>
       <c r="Q3" t="n">
-        <v>75.35231189399384</v>
+        <v>75.35231189399381</v>
       </c>
       <c r="R3" t="n">
-        <v>36.65088397372791</v>
+        <v>36.65088397372789</v>
       </c>
       <c r="S3" t="n">
-        <v>10.96471415857146</v>
+        <v>10.96471415857145</v>
       </c>
       <c r="T3" t="n">
         <v>2.379355917763204</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0388360595935235</v>
+        <v>0.03883605959352349</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.494894486186321</v>
+        <v>0.4948944861863209</v>
       </c>
       <c r="H4" t="n">
-        <v>4.400061886274749</v>
+        <v>4.400061886274747</v>
       </c>
       <c r="I4" t="n">
         <v>14.88282691185773</v>
       </c>
       <c r="J4" t="n">
-        <v>34.9890401733729</v>
+        <v>34.98904017337289</v>
       </c>
       <c r="K4" t="n">
-        <v>57.49774121328347</v>
+        <v>57.49774121328345</v>
       </c>
       <c r="L4" t="n">
-        <v>73.57731297355542</v>
+        <v>73.57731297355539</v>
       </c>
       <c r="M4" t="n">
-        <v>77.57696023009757</v>
+        <v>77.57696023009754</v>
       </c>
       <c r="N4" t="n">
-        <v>75.73235350885771</v>
+        <v>75.73235350885768</v>
       </c>
       <c r="O4" t="n">
-        <v>69.95108610204475</v>
+        <v>69.95108610204473</v>
       </c>
       <c r="P4" t="n">
-        <v>59.85523858384375</v>
+        <v>59.85523858384373</v>
       </c>
       <c r="Q4" t="n">
-        <v>41.44066465692912</v>
+        <v>41.44066465692911</v>
       </c>
       <c r="R4" t="n">
         <v>22.25225571525039</v>
       </c>
       <c r="S4" t="n">
-        <v>8.624661181992519</v>
+        <v>8.624661181992515</v>
       </c>
       <c r="T4" t="n">
-        <v>2.114549168250644</v>
+        <v>2.114549168250643</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02699424470107209</v>
+        <v>0.02699424470107208</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31627,7 +31627,7 @@
         <v>84.90045714900501</v>
       </c>
       <c r="R9" t="n">
-        <v>41.29504093599901</v>
+        <v>41.295040935999</v>
       </c>
       <c r="S9" t="n">
         <v>12.35409002288469</v>
@@ -31673,10 +31673,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5576042335217276</v>
+        <v>0.5576042335217277</v>
       </c>
       <c r="H10" t="n">
-        <v>4.957608548947728</v>
+        <v>4.957608548947729</v>
       </c>
       <c r="I10" t="n">
         <v>16.76868004081705</v>
@@ -31697,7 +31697,7 @@
         <v>85.32865511701135</v>
       </c>
       <c r="O10" t="n">
-        <v>78.8148238435984</v>
+        <v>78.81482384359842</v>
       </c>
       <c r="P10" t="n">
         <v>67.43969747975511</v>
@@ -31709,7 +31709,7 @@
         <v>25.07191399089513</v>
       </c>
       <c r="S10" t="n">
-        <v>9.717521051465015</v>
+        <v>9.717521051465013</v>
       </c>
       <c r="T10" t="n">
         <v>2.382490815956472</v>
@@ -35491,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>29.01770852812535</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>14.99131829799379</v>
       </c>
       <c r="M12" t="n">
-        <v>46.08953479525906</v>
+        <v>69.4953081783586</v>
       </c>
       <c r="N12" t="n">
         <v>68.594885808589</v>
       </c>
       <c r="O12" t="n">
-        <v>72.50698091790819</v>
+        <v>78.11891606293401</v>
       </c>
       <c r="P12" t="n">
         <v>78.11891606293401</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>29.01770852812535</v>
       </c>
       <c r="L15" t="n">
         <v>78.11891606293401</v>
       </c>
       <c r="M15" t="n">
-        <v>54.56040451281203</v>
+        <v>46.08953479525906</v>
       </c>
       <c r="N15" t="n">
         <v>68.594885808589</v>
       </c>
       <c r="O15" t="n">
-        <v>29.92622196354034</v>
+        <v>78.11891606293401</v>
       </c>
       <c r="P15" t="n">
-        <v>78.11891606293401</v>
+        <v>9.379383152967975</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>29.01770852812535</v>
       </c>
       <c r="L18" t="n">
         <v>78.11891606293401</v>
       </c>
       <c r="M18" t="n">
-        <v>78.11891606293401</v>
+        <v>55.46891794822702</v>
       </c>
       <c r="N18" t="n">
         <v>68.594885808589</v>
       </c>
       <c r="O18" t="n">
-        <v>29.92622196354034</v>
+        <v>78.11891606293401</v>
       </c>
       <c r="P18" t="n">
-        <v>54.56040451281205</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>29.01770852812535</v>
       </c>
       <c r="L21" t="n">
+        <v>57.57207725236164</v>
+      </c>
+      <c r="M21" t="n">
+        <v>46.08953479525906</v>
+      </c>
+      <c r="N21" t="n">
+        <v>68.594885808589</v>
+      </c>
+      <c r="O21" t="n">
+        <v>29.92622196354034</v>
+      </c>
+      <c r="P21" t="n">
         <v>78.11891606293401</v>
-      </c>
-      <c r="M21" t="n">
-        <v>78.11891606293401</v>
-      </c>
-      <c r="N21" t="n">
-        <v>74.96259622200739</v>
-      </c>
-      <c r="O21" t="n">
-        <v>78.11891606293401</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>108.9267490953733</v>
       </c>
       <c r="M24" t="n">
-        <v>108.9267490953733</v>
+        <v>46.08953479525906</v>
       </c>
       <c r="N24" t="n">
         <v>108.9267490953733</v>
       </c>
       <c r="O24" t="n">
-        <v>104.525668323843</v>
+        <v>89.10434280525152</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>78.2585398187057</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36676,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>29.01770852812535</v>
       </c>
       <c r="L27" t="n">
-        <v>26.26712850513736</v>
+        <v>100.4184975639104</v>
       </c>
       <c r="M27" t="n">
-        <v>108.9267490953733</v>
+        <v>46.08953479525906</v>
       </c>
       <c r="N27" t="n">
-        <v>108.9267490953733</v>
+        <v>68.594885808589</v>
       </c>
       <c r="O27" t="n">
         <v>108.9267490953733</v>
@@ -36913,19 +36913,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>29.01770852812535</v>
       </c>
       <c r="L30" t="n">
-        <v>26.26712850513736</v>
+        <v>108.9267490953733</v>
       </c>
       <c r="M30" t="n">
-        <v>108.9267490953733</v>
+        <v>46.08953479525906</v>
       </c>
       <c r="N30" t="n">
         <v>108.9267490953733</v>
       </c>
       <c r="O30" t="n">
-        <v>108.9267490953733</v>
+        <v>60.08663427712616</v>
       </c>
       <c r="P30" t="n">
         <v>78.2585398187057</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>29.01770852812535</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>108.9267490953733</v>
@@ -37159,13 +37159,13 @@
         <v>108.9267490953733</v>
       </c>
       <c r="N33" t="n">
-        <v>108.9267490953733</v>
+        <v>68.594885808589</v>
       </c>
       <c r="O33" t="n">
-        <v>75.50795979571765</v>
+        <v>66.59899179192156</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>78.2585398187057</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37390,19 +37390,19 @@
         <v>29.01770852812535</v>
       </c>
       <c r="L36" t="n">
-        <v>48.04804699801664</v>
+        <v>78.11891606293401</v>
       </c>
       <c r="M36" t="n">
-        <v>46.08953479525906</v>
+        <v>78.11891606293401</v>
       </c>
       <c r="N36" t="n">
-        <v>78.11891606293401</v>
+        <v>68.594885808589</v>
       </c>
       <c r="O36" t="n">
-        <v>29.92622196354034</v>
+        <v>55.46891794822702</v>
       </c>
       <c r="P36" t="n">
-        <v>78.11891606293401</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37624,13 +37624,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>29.01770852812535</v>
       </c>
       <c r="L39" t="n">
-        <v>54.56040451281203</v>
+        <v>57.57207725236164</v>
       </c>
       <c r="M39" t="n">
-        <v>78.11891606293401</v>
+        <v>46.08953479525906</v>
       </c>
       <c r="N39" t="n">
         <v>68.594885808589</v>
@@ -37864,7 +37864,7 @@
         <v>29.01770852812535</v>
       </c>
       <c r="L42" t="n">
-        <v>57.57207725236164</v>
+        <v>14.99131829799379</v>
       </c>
       <c r="M42" t="n">
         <v>46.08953479525906</v>
@@ -37873,7 +37873,7 @@
         <v>68.594885808589</v>
       </c>
       <c r="O42" t="n">
-        <v>29.92622196354034</v>
+        <v>72.50698091790819</v>
       </c>
       <c r="P42" t="n">
         <v>78.11891606293401</v>
@@ -38101,19 +38101,19 @@
         <v>29.01770852812535</v>
       </c>
       <c r="L45" t="n">
-        <v>45.94488769388202</v>
+        <v>14.99131829799379</v>
       </c>
       <c r="M45" t="n">
-        <v>78.11891606293401</v>
+        <v>46.08953479525906</v>
       </c>
       <c r="N45" t="n">
         <v>78.11891606293401</v>
       </c>
       <c r="O45" t="n">
+        <v>62.98295066356319</v>
+      </c>
+      <c r="P45" t="n">
         <v>78.11891606293401</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
